--- a/NI-2010/Trunk/Washer DOE/Documentation/Building 1 Lab IP Assignment.xlsx
+++ b/NI-2010/Trunk/Washer DOE/Documentation/Building 1 Lab IP Assignment.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechLab\NI-2010\Trunk\Washer DOE\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andrew_Treasure_Chest\NI-2010\Trunk\Washer DOE\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8835" tabRatio="754" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8840" tabRatio="754" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AP1 Instruments" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="851">
   <si>
     <t>Station</t>
   </si>
@@ -2635,6 +2635,12 @@
   </si>
   <si>
     <t>ELAB225-Computer - Row L Part 2</t>
+  </si>
+  <si>
+    <t>Humidity Sensor 2</t>
+  </si>
+  <si>
+    <t>192.168.1.35</t>
   </si>
 </sst>
 </file>
@@ -3341,48 +3347,48 @@
       <selection activeCell="AM47" sqref="AM47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" customWidth="1"/>
     <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" customWidth="1"/>
     <col min="25" max="25" width="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" customWidth="1"/>
     <col min="28" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" customWidth="1"/>
+    <col min="29" max="29" width="10.453125" customWidth="1"/>
+    <col min="30" max="30" width="14.453125" customWidth="1"/>
+    <col min="32" max="32" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.26953125" customWidth="1"/>
     <col min="35" max="35" width="40" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="21" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3452,7 @@
       <c r="AU1" s="73"/>
       <c r="AV1" s="74"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>401</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
@@ -3657,7 +3663,7 @@
       </c>
       <c r="AV3" s="17"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>347</v>
       </c>
@@ -3745,7 +3751,7 @@
       </c>
       <c r="AV4" s="17"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>27</v>
       </c>
@@ -3842,7 +3848,7 @@
       </c>
       <c r="AV5" s="17"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D6" s="2">
         <v>1</v>
       </c>
@@ -3931,7 +3937,7 @@
       </c>
       <c r="AV6" s="17"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D7" s="2">
         <v>1</v>
       </c>
@@ -4013,7 +4019,7 @@
       </c>
       <c r="AV7" s="17"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D8" s="2">
         <v>1</v>
       </c>
@@ -4093,7 +4099,7 @@
       </c>
       <c r="AV8" s="17"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D9" s="2">
         <v>1</v>
       </c>
@@ -4173,7 +4179,7 @@
       </c>
       <c r="AV9" s="17"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D10" s="3">
         <v>2</v>
       </c>
@@ -4255,7 +4261,7 @@
       </c>
       <c r="AV10" s="17"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D11" s="3">
         <v>2</v>
       </c>
@@ -4328,7 +4334,7 @@
       </c>
       <c r="AV11" s="17"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D12" s="3">
         <v>2</v>
       </c>
@@ -4401,7 +4407,7 @@
       </c>
       <c r="AV12" s="17"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D13" s="3">
         <v>2</v>
       </c>
@@ -4469,7 +4475,7 @@
       </c>
       <c r="AV13" s="17"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D14" s="3">
         <v>2</v>
       </c>
@@ -4532,7 +4538,7 @@
       </c>
       <c r="AV14" s="17"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D15" s="3">
         <v>2</v>
       </c>
@@ -4584,7 +4590,7 @@
       </c>
       <c r="AV15" s="17"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D16" s="3">
         <v>2</v>
       </c>
@@ -4636,7 +4642,7 @@
       </c>
       <c r="AV16" s="17"/>
     </row>
-    <row r="17" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D17" s="2">
         <v>3</v>
       </c>
@@ -4690,7 +4696,7 @@
       </c>
       <c r="AV17" s="17"/>
     </row>
-    <row r="18" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D18" s="2">
         <v>3</v>
       </c>
@@ -4746,7 +4752,7 @@
       </c>
       <c r="AV18" s="17"/>
     </row>
-    <row r="19" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D19" s="2">
         <v>3</v>
       </c>
@@ -4795,7 +4801,7 @@
       </c>
       <c r="AV19" s="17"/>
     </row>
-    <row r="20" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D20" s="2">
         <v>3</v>
       </c>
@@ -4844,7 +4850,7 @@
       </c>
       <c r="AV20" s="17"/>
     </row>
-    <row r="21" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D21" s="2">
         <v>3</v>
       </c>
@@ -4893,7 +4899,7 @@
       </c>
       <c r="AV21" s="17"/>
     </row>
-    <row r="22" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D22" s="2">
         <v>3</v>
       </c>
@@ -4949,7 +4955,7 @@
       </c>
       <c r="AV22" s="17"/>
     </row>
-    <row r="23" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D23" s="2">
         <v>3</v>
       </c>
@@ -5005,7 +5011,7 @@
       </c>
       <c r="AV23" s="17"/>
     </row>
-    <row r="24" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D24" s="3">
         <v>4</v>
       </c>
@@ -5063,7 +5069,7 @@
       </c>
       <c r="AV24" s="17"/>
     </row>
-    <row r="25" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D25" s="3">
         <v>4</v>
       </c>
@@ -5119,7 +5125,7 @@
       </c>
       <c r="AV25" s="17"/>
     </row>
-    <row r="26" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D26" s="3">
         <v>4</v>
       </c>
@@ -5175,7 +5181,7 @@
       </c>
       <c r="AV26" s="17"/>
     </row>
-    <row r="27" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D27" s="3">
         <v>4</v>
       </c>
@@ -5234,7 +5240,7 @@
       </c>
       <c r="AV27" s="17"/>
     </row>
-    <row r="28" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D28" s="3">
         <v>4</v>
       </c>
@@ -5291,7 +5297,7 @@
       <c r="AU28" s="17"/>
       <c r="AV28" s="17"/>
     </row>
-    <row r="29" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D29" s="3">
         <v>4</v>
       </c>
@@ -5342,7 +5348,7 @@
       <c r="AU29" s="17"/>
       <c r="AV29" s="17"/>
     </row>
-    <row r="30" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D30" s="3">
         <v>4</v>
       </c>
@@ -5392,7 +5398,7 @@
       <c r="AU30" s="17"/>
       <c r="AV30" s="17"/>
     </row>
-    <row r="31" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D31" s="2">
         <v>5</v>
       </c>
@@ -5444,7 +5450,7 @@
       <c r="AU31" s="17"/>
       <c r="AV31" s="17"/>
     </row>
-    <row r="32" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D32" s="2">
         <v>5</v>
       </c>
@@ -5497,7 +5503,7 @@
       <c r="AU32" s="17"/>
       <c r="AV32" s="17"/>
     </row>
-    <row r="33" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D33" s="2">
         <v>5</v>
       </c>
@@ -5548,7 +5554,7 @@
       <c r="AU33" s="17"/>
       <c r="AV33" s="17"/>
     </row>
-    <row r="34" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D34" s="2">
         <v>5</v>
       </c>
@@ -5599,7 +5605,7 @@
       <c r="AU34" s="17"/>
       <c r="AV34" s="17"/>
     </row>
-    <row r="35" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D35" s="2">
         <v>5</v>
       </c>
@@ -5652,7 +5658,7 @@
       <c r="AU35" s="17"/>
       <c r="AV35" s="17"/>
     </row>
-    <row r="36" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D36" s="2">
         <v>5</v>
       </c>
@@ -5703,7 +5709,7 @@
       <c r="AU36" s="17"/>
       <c r="AV36" s="17"/>
     </row>
-    <row r="37" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D37" s="2">
         <v>5</v>
       </c>
@@ -5756,7 +5762,7 @@
       <c r="AU37" s="17"/>
       <c r="AV37" s="17"/>
     </row>
-    <row r="38" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D38" s="3">
         <v>6</v>
       </c>
@@ -5803,7 +5809,7 @@
       <c r="AU38" s="17"/>
       <c r="AV38" s="17"/>
     </row>
-    <row r="39" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D39" s="3">
         <v>6</v>
       </c>
@@ -5850,7 +5856,7 @@
       <c r="AU39" s="17"/>
       <c r="AV39" s="17"/>
     </row>
-    <row r="40" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D40" s="3">
         <v>6</v>
       </c>
@@ -5905,7 +5911,7 @@
       <c r="AU40" s="17"/>
       <c r="AV40" s="17"/>
     </row>
-    <row r="41" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D41" s="3">
         <v>6</v>
       </c>
@@ -5958,7 +5964,7 @@
       <c r="AU41" s="17"/>
       <c r="AV41" s="17"/>
     </row>
-    <row r="42" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D42" s="3">
         <v>6</v>
       </c>
@@ -6009,7 +6015,7 @@
       <c r="AU42" s="17"/>
       <c r="AV42" s="17"/>
     </row>
-    <row r="43" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D43" s="3">
         <v>6</v>
       </c>
@@ -6063,7 +6069,7 @@
       <c r="AU43" s="17"/>
       <c r="AV43" s="17"/>
     </row>
-    <row r="44" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D44" s="3">
         <v>6</v>
       </c>
@@ -6117,7 +6123,7 @@
       <c r="AU44" s="17"/>
       <c r="AV44" s="17"/>
     </row>
-    <row r="45" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D45" s="2">
         <v>7</v>
       </c>
@@ -6164,7 +6170,7 @@
       <c r="AU45" s="17"/>
       <c r="AV45" s="17"/>
     </row>
-    <row r="46" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D46" s="2">
         <v>7</v>
       </c>
@@ -6211,7 +6217,7 @@
       <c r="AU46" s="17"/>
       <c r="AV46" s="17"/>
     </row>
-    <row r="47" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D47" s="2">
         <v>7</v>
       </c>
@@ -6258,7 +6264,7 @@
       <c r="AU47" s="17"/>
       <c r="AV47" s="17"/>
     </row>
-    <row r="48" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D48" s="2">
         <v>7</v>
       </c>
@@ -6305,7 +6311,7 @@
       <c r="AU48" s="17"/>
       <c r="AV48" s="17"/>
     </row>
-    <row r="49" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D49" s="2">
         <v>7</v>
       </c>
@@ -6352,7 +6358,7 @@
       <c r="AU49" s="17"/>
       <c r="AV49" s="17"/>
     </row>
-    <row r="50" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D50" s="2">
         <v>7</v>
       </c>
@@ -6397,7 +6403,7 @@
       <c r="AU50" s="17"/>
       <c r="AV50" s="17"/>
     </row>
-    <row r="51" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D51" s="2">
         <v>7</v>
       </c>
@@ -6447,7 +6453,7 @@
       <c r="AU51" s="17"/>
       <c r="AV51" s="17"/>
     </row>
-    <row r="52" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D52" s="3">
         <v>8</v>
       </c>
@@ -6495,7 +6501,7 @@
       <c r="AU52" s="17"/>
       <c r="AV52" s="17"/>
     </row>
-    <row r="53" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D53" s="3">
         <v>8</v>
       </c>
@@ -6542,7 +6548,7 @@
       <c r="AU53" s="17"/>
       <c r="AV53" s="17"/>
     </row>
-    <row r="54" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D54" s="3">
         <v>8</v>
       </c>
@@ -6589,7 +6595,7 @@
       <c r="AU54" s="17"/>
       <c r="AV54" s="17"/>
     </row>
-    <row r="55" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D55" s="3">
         <v>8</v>
       </c>
@@ -6624,7 +6630,7 @@
       <c r="AU55" s="17"/>
       <c r="AV55" s="17"/>
     </row>
-    <row r="56" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D56" s="3">
         <v>8</v>
       </c>
@@ -6662,7 +6668,7 @@
       <c r="AU56" s="17"/>
       <c r="AV56" s="17"/>
     </row>
-    <row r="57" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D57" s="3">
         <v>8</v>
       </c>
@@ -6689,7 +6695,7 @@
       <c r="AU57" s="17"/>
       <c r="AV57" s="17"/>
     </row>
-    <row r="58" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D58" s="3">
         <v>8</v>
       </c>
@@ -6713,7 +6719,7 @@
       <c r="AU58" s="17"/>
       <c r="AV58" s="17"/>
     </row>
-    <row r="59" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D59" s="2">
         <v>9</v>
       </c>
@@ -6748,7 +6754,7 @@
       <c r="AU59" s="17"/>
       <c r="AV59" s="17"/>
     </row>
-    <row r="60" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:48" x14ac:dyDescent="0.35">
       <c r="D60" s="3">
         <v>10</v>
       </c>
@@ -6783,7 +6789,7 @@
       <c r="AU60" s="17"/>
       <c r="AV60" s="17"/>
     </row>
-    <row r="61" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:48" x14ac:dyDescent="0.35">
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="24"/>
@@ -6809,7 +6815,7 @@
       <c r="AU61" s="17"/>
       <c r="AV61" s="17"/>
     </row>
-    <row r="62" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:48" x14ac:dyDescent="0.35">
       <c r="H62" s="11" t="s">
         <v>151</v>
       </c>
@@ -6838,7 +6844,7 @@
       <c r="AU62" s="17"/>
       <c r="AV62" s="17"/>
     </row>
-    <row r="63" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:48" x14ac:dyDescent="0.35">
       <c r="H63" s="11" t="s">
         <v>151</v>
       </c>
@@ -6873,7 +6879,7 @@
       <c r="AU63" s="17"/>
       <c r="AV63" s="17"/>
     </row>
-    <row r="64" spans="4:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:48" x14ac:dyDescent="0.35">
       <c r="H64" s="11" t="s">
         <v>151</v>
       </c>
@@ -6906,7 +6912,7 @@
       <c r="AU64" s="17"/>
       <c r="AV64" s="17"/>
     </row>
-    <row r="65" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H65" s="11" t="s">
         <v>151</v>
       </c>
@@ -6939,7 +6945,7 @@
       <c r="AU65" s="17"/>
       <c r="AV65" s="17"/>
     </row>
-    <row r="66" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H66" s="11" t="s">
         <v>151</v>
       </c>
@@ -6972,7 +6978,7 @@
       <c r="AU66" s="17"/>
       <c r="AV66" s="17"/>
     </row>
-    <row r="67" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H67" s="11" t="s">
         <v>151</v>
       </c>
@@ -7005,7 +7011,7 @@
       <c r="AU67" s="17"/>
       <c r="AV67" s="17"/>
     </row>
-    <row r="68" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H68" s="11" t="s">
         <v>151</v>
       </c>
@@ -7038,7 +7044,7 @@
       <c r="AU68" s="17"/>
       <c r="AV68" s="17"/>
     </row>
-    <row r="69" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H69" s="11" t="s">
         <v>151</v>
       </c>
@@ -7071,7 +7077,7 @@
       <c r="AU69" s="17"/>
       <c r="AV69" s="17"/>
     </row>
-    <row r="70" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H70" s="11" t="s">
         <v>151</v>
       </c>
@@ -7109,7 +7115,7 @@
       <c r="AU70" s="17"/>
       <c r="AV70" s="17"/>
     </row>
-    <row r="71" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H71" s="11" t="s">
         <v>151</v>
       </c>
@@ -7143,7 +7149,7 @@
       <c r="AU71" s="17"/>
       <c r="AV71" s="17"/>
     </row>
-    <row r="72" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H72" s="11" t="s">
         <v>151</v>
       </c>
@@ -7177,7 +7183,7 @@
       <c r="AU72" s="17"/>
       <c r="AV72" s="17"/>
     </row>
-    <row r="73" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H73" s="11" t="s">
         <v>151</v>
       </c>
@@ -7211,7 +7217,7 @@
       <c r="AU73" s="17"/>
       <c r="AV73" s="17"/>
     </row>
-    <row r="74" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H74" s="11" t="s">
         <v>151</v>
       </c>
@@ -7245,7 +7251,7 @@
       <c r="AU74" s="17"/>
       <c r="AV74" s="17"/>
     </row>
-    <row r="75" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H75" s="11" t="s">
         <v>151</v>
       </c>
@@ -7281,7 +7287,7 @@
       <c r="AU75" s="17"/>
       <c r="AV75" s="17"/>
     </row>
-    <row r="76" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H76" s="11" t="s">
         <v>151</v>
       </c>
@@ -7306,7 +7312,7 @@
       <c r="AU76" s="17"/>
       <c r="AV76" s="17"/>
     </row>
-    <row r="77" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H77" s="11" t="s">
         <v>151</v>
       </c>
@@ -7331,7 +7337,7 @@
       <c r="AU77" s="17"/>
       <c r="AV77" s="17"/>
     </row>
-    <row r="78" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H78" s="11" t="s">
         <v>151</v>
       </c>
@@ -7356,7 +7362,7 @@
       <c r="AU78" s="17"/>
       <c r="AV78" s="17"/>
     </row>
-    <row r="79" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H79" s="11" t="s">
         <v>151</v>
       </c>
@@ -7381,7 +7387,7 @@
       <c r="AU79" s="17"/>
       <c r="AV79" s="17"/>
     </row>
-    <row r="80" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H80" s="11" t="s">
         <v>151</v>
       </c>
@@ -7406,7 +7412,7 @@
       <c r="AU80" s="17"/>
       <c r="AV80" s="17"/>
     </row>
-    <row r="81" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H81" s="11" t="s">
         <v>151</v>
       </c>
@@ -7431,7 +7437,7 @@
       <c r="AU81" s="17"/>
       <c r="AV81" s="17"/>
     </row>
-    <row r="82" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H82" s="11" t="s">
         <v>151</v>
       </c>
@@ -7456,7 +7462,7 @@
       <c r="AU82" s="17"/>
       <c r="AV82" s="17"/>
     </row>
-    <row r="83" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H83" s="11" t="s">
         <v>151</v>
       </c>
@@ -7481,7 +7487,7 @@
       <c r="AU83" s="17"/>
       <c r="AV83" s="17"/>
     </row>
-    <row r="84" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H84" s="11" t="s">
         <v>151</v>
       </c>
@@ -7506,7 +7512,7 @@
       <c r="AU84" s="17"/>
       <c r="AV84" s="17"/>
     </row>
-    <row r="85" spans="5:48" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="H85" s="3" t="s">
@@ -7531,7 +7537,7 @@
       <c r="AU85" s="17"/>
       <c r="AV85" s="17"/>
     </row>
-    <row r="86" spans="5:48" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="H86" s="3" t="s">
@@ -7556,7 +7562,7 @@
       <c r="AU86" s="17"/>
       <c r="AV86" s="17"/>
     </row>
-    <row r="87" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H87" s="3" t="s">
         <v>151</v>
       </c>
@@ -7585,7 +7591,7 @@
       <c r="AU87" s="17"/>
       <c r="AV87" s="17"/>
     </row>
-    <row r="88" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H88" s="3" t="s">
         <v>151</v>
       </c>
@@ -7614,7 +7620,7 @@
       <c r="AU88" s="17"/>
       <c r="AV88" s="17"/>
     </row>
-    <row r="89" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H89" s="3" t="s">
         <v>151</v>
       </c>
@@ -7643,7 +7649,7 @@
       <c r="AU89" s="17"/>
       <c r="AV89" s="17"/>
     </row>
-    <row r="90" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H90" s="3" t="s">
         <v>151</v>
       </c>
@@ -7672,7 +7678,7 @@
       <c r="AU90" s="17"/>
       <c r="AV90" s="17"/>
     </row>
-    <row r="91" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H91" s="3" t="s">
         <v>151</v>
       </c>
@@ -7701,7 +7707,7 @@
       <c r="AU91" s="17"/>
       <c r="AV91" s="17"/>
     </row>
-    <row r="92" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H92" s="3" t="s">
         <v>151</v>
       </c>
@@ -7730,7 +7736,7 @@
       <c r="AU92" s="17"/>
       <c r="AV92" s="17"/>
     </row>
-    <row r="93" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H93" s="3" t="s">
         <v>151</v>
       </c>
@@ -7759,7 +7765,7 @@
       <c r="AU93" s="17"/>
       <c r="AV93" s="17"/>
     </row>
-    <row r="94" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H94" s="3" t="s">
         <v>151</v>
       </c>
@@ -7788,7 +7794,7 @@
       <c r="AU94" s="17"/>
       <c r="AV94" s="17"/>
     </row>
-    <row r="95" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H95" s="3" t="s">
         <v>151</v>
       </c>
@@ -7817,7 +7823,7 @@
       <c r="AU95" s="17"/>
       <c r="AV95" s="17"/>
     </row>
-    <row r="96" spans="5:48" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:48" x14ac:dyDescent="0.35">
       <c r="H96" s="3" t="s">
         <v>151</v>
       </c>
@@ -7846,7 +7852,7 @@
       <c r="AU96" s="17"/>
       <c r="AV96" s="17"/>
     </row>
-    <row r="97" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H97" s="3" t="s">
         <v>151</v>
       </c>
@@ -7875,7 +7881,7 @@
       <c r="AU97" s="17"/>
       <c r="AV97" s="17"/>
     </row>
-    <row r="98" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H98" s="3" t="s">
         <v>151</v>
       </c>
@@ -7904,7 +7910,7 @@
       <c r="AU98" s="17"/>
       <c r="AV98" s="17"/>
     </row>
-    <row r="99" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H99" s="3" t="s">
         <v>151</v>
       </c>
@@ -7933,7 +7939,7 @@
       <c r="AU99" s="17"/>
       <c r="AV99" s="17"/>
     </row>
-    <row r="100" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H100" s="3" t="s">
         <v>151</v>
       </c>
@@ -7962,7 +7968,7 @@
       <c r="AU100" s="17"/>
       <c r="AV100" s="17"/>
     </row>
-    <row r="101" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H101" s="3" t="s">
         <v>151</v>
       </c>
@@ -7991,7 +7997,7 @@
       <c r="AU101" s="17"/>
       <c r="AV101" s="17"/>
     </row>
-    <row r="102" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H102" s="3" t="s">
         <v>151</v>
       </c>
@@ -8020,7 +8026,7 @@
       <c r="AU102" s="17"/>
       <c r="AV102" s="17"/>
     </row>
-    <row r="103" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H103" s="3" t="s">
         <v>151</v>
       </c>
@@ -8049,7 +8055,7 @@
       <c r="AU103" s="17"/>
       <c r="AV103" s="17"/>
     </row>
-    <row r="104" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H104" s="3" t="s">
         <v>151</v>
       </c>
@@ -8078,7 +8084,7 @@
       <c r="AU104" s="17"/>
       <c r="AV104" s="17"/>
     </row>
-    <row r="105" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H105" s="3" t="s">
         <v>151</v>
       </c>
@@ -8107,7 +8113,7 @@
       <c r="AU105" s="17"/>
       <c r="AV105" s="17"/>
     </row>
-    <row r="106" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H106" s="3" t="s">
         <v>151</v>
       </c>
@@ -8136,7 +8142,7 @@
       <c r="AU106" s="17"/>
       <c r="AV106" s="17"/>
     </row>
-    <row r="107" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H107" s="3" t="s">
         <v>151</v>
       </c>
@@ -8161,7 +8167,7 @@
       <c r="AU107" s="17"/>
       <c r="AV107" s="17"/>
     </row>
-    <row r="108" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H108" s="3" t="s">
         <v>151</v>
       </c>
@@ -8178,7 +8184,7 @@
       </c>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H109" s="11" t="s">
         <v>152</v>
       </c>
@@ -8193,7 +8199,7 @@
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H110" s="11" t="s">
         <v>152</v>
       </c>
@@ -8208,7 +8214,7 @@
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
     </row>
-    <row r="111" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H111" s="11" t="s">
         <v>152</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="8:48" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:48" x14ac:dyDescent="0.35">
       <c r="H112" s="11" t="s">
         <v>152</v>
       </c>
@@ -8252,7 +8258,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H113" s="11" t="s">
         <v>152</v>
       </c>
@@ -8273,7 +8279,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H114" s="11" t="s">
         <v>152</v>
       </c>
@@ -8294,7 +8300,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H115" s="11" t="s">
         <v>152</v>
       </c>
@@ -8315,7 +8321,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H116" s="11" t="s">
         <v>152</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H117" s="11" t="s">
         <v>152</v>
       </c>
@@ -8357,7 +8363,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H118" s="11" t="s">
         <v>152</v>
       </c>
@@ -8378,7 +8384,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H119" s="11" t="s">
         <v>152</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H120" s="11" t="s">
         <v>152</v>
       </c>
@@ -8420,7 +8426,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H121" s="11" t="s">
         <v>152</v>
       </c>
@@ -8441,7 +8447,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H122" s="11" t="s">
         <v>152</v>
       </c>
@@ -8462,7 +8468,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H123" s="11" t="s">
         <v>152</v>
       </c>
@@ -8483,7 +8489,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="124" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H124" s="11" t="s">
         <v>152</v>
       </c>
@@ -8504,7 +8510,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H125" s="11" t="s">
         <v>152</v>
       </c>
@@ -8525,7 +8531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H126" s="11" t="s">
         <v>152</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H127" s="11" t="s">
         <v>152</v>
       </c>
@@ -8567,7 +8573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H128" s="11" t="s">
         <v>152</v>
       </c>
@@ -8588,7 +8594,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H129" s="11" t="s">
         <v>152</v>
       </c>
@@ -8609,7 +8615,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H130" s="11" t="s">
         <v>152</v>
       </c>
@@ -8630,7 +8636,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H131" s="11" t="s">
         <v>152</v>
       </c>
@@ -8645,7 +8651,7 @@
       </c>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H132" s="11" t="s">
         <v>152</v>
       </c>
@@ -8660,7 +8666,7 @@
       </c>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H133" s="11" t="s">
         <v>152</v>
       </c>
@@ -8675,7 +8681,7 @@
       </c>
       <c r="N133" s="13"/>
     </row>
-    <row r="134" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H134" s="11" t="s">
         <v>152</v>
       </c>
@@ -8691,7 +8697,7 @@
       <c r="N134" s="11"/>
       <c r="P134" s="18"/>
     </row>
-    <row r="135" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H135" s="11" t="s">
         <v>152</v>
       </c>
@@ -8706,7 +8712,7 @@
       </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H136" s="11" t="s">
         <v>152</v>
       </c>
@@ -8721,7 +8727,7 @@
       </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H137" s="11" t="s">
         <v>152</v>
       </c>
@@ -8736,7 +8742,7 @@
       </c>
       <c r="N137" s="11"/>
     </row>
-    <row r="138" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H138" s="11" t="s">
         <v>152</v>
       </c>
@@ -8751,7 +8757,7 @@
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H139" s="11" t="s">
         <v>152</v>
       </c>
@@ -8766,7 +8772,7 @@
       </c>
       <c r="N139" s="11"/>
     </row>
-    <row r="140" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H140" s="11" t="s">
         <v>152</v>
       </c>
@@ -8781,7 +8787,7 @@
       </c>
       <c r="N140" s="11"/>
     </row>
-    <row r="141" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H141" s="11" t="s">
         <v>152</v>
       </c>
@@ -8796,7 +8802,7 @@
       </c>
       <c r="N141" s="11"/>
     </row>
-    <row r="142" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H142" s="11" t="s">
         <v>152</v>
       </c>
@@ -8811,7 +8817,7 @@
       </c>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H143" s="41"/>
       <c r="I143" s="41" t="s">
         <v>617</v>
@@ -8824,7 +8830,7 @@
       <c r="M143" s="42"/>
       <c r="N143" s="41"/>
     </row>
-    <row r="144" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H144" s="41"/>
       <c r="I144" s="41" t="s">
         <v>697</v>
@@ -8837,7 +8843,7 @@
       <c r="M144" s="42"/>
       <c r="N144" s="41"/>
     </row>
-    <row r="145" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H145" s="41" t="s">
         <v>152</v>
       </c>
@@ -8858,7 +8864,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="146" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H146" s="41" t="s">
         <v>152</v>
       </c>
@@ -8879,7 +8885,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="147" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H147" s="41" t="s">
         <v>152</v>
       </c>
@@ -8894,7 +8900,7 @@
       </c>
       <c r="N147" s="41"/>
     </row>
-    <row r="148" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H148" s="41" t="s">
         <v>152</v>
       </c>
@@ -8909,7 +8915,7 @@
       </c>
       <c r="N148" s="41"/>
     </row>
-    <row r="149" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H149" s="41" t="s">
         <v>152</v>
       </c>
@@ -8930,7 +8936,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="150" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H150" s="41" t="s">
         <v>152</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="151" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H151" s="41" t="s">
         <v>152</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H152" s="41" t="s">
         <v>152</v>
       </c>
@@ -8993,7 +8999,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H153" s="41" t="s">
         <v>152</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="H154" s="41" t="s">
@@ -9037,7 +9043,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="155" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="H155" s="41" t="s">
@@ -9060,7 +9066,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="156" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="H156" s="41" t="s">
@@ -9083,7 +9089,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="H157" s="41" t="s">
@@ -9106,7 +9112,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="158" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="H158" s="41" t="s">
@@ -9123,7 +9129,7 @@
       </c>
       <c r="N158" s="41"/>
     </row>
-    <row r="159" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="H159" s="41" t="s">
@@ -9140,7 +9146,7 @@
       </c>
       <c r="N159" s="41"/>
     </row>
-    <row r="160" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="H160" s="41" t="s">
@@ -9157,7 +9163,7 @@
       </c>
       <c r="N160" s="41"/>
     </row>
-    <row r="161" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="H161" s="3" t="s">
@@ -9174,7 +9180,7 @@
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
     </row>
-    <row r="162" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="H162" s="3"/>
@@ -9187,7 +9193,7 @@
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
     </row>
-    <row r="163" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="H163" s="3" t="s">
@@ -9210,7 +9216,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="164" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="H164" s="3" t="s">
@@ -9233,7 +9239,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="165" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="H165" s="3" t="s">
@@ -9256,7 +9262,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="166" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="H166" s="3" t="s">
@@ -9279,7 +9285,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="167" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="H167" s="3" t="s">
@@ -9302,7 +9308,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="H168" s="3" t="s">
@@ -9325,7 +9331,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="169" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="H169" s="3" t="s">
@@ -9348,7 +9354,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="170" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="H170" s="3" t="s">
@@ -9371,7 +9377,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="171" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="H171" s="3" t="s">
@@ -9394,7 +9400,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="172" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="H172" s="3" t="s">
@@ -9417,7 +9423,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="H173" s="3" t="s">
@@ -9440,7 +9446,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="174" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="H174" s="3" t="s">
@@ -9463,7 +9469,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="175" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="H175" s="3" t="s">
@@ -9486,7 +9492,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="176" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="H176" s="3" t="s">
@@ -9509,7 +9515,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="177" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="H177" s="3"/>
@@ -9520,7 +9526,7 @@
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
     </row>
-    <row r="178" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="H178" s="3"/>
@@ -9531,7 +9537,7 @@
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
     </row>
-    <row r="179" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="H179" s="3"/>
@@ -9542,7 +9548,7 @@
       <c r="M179" s="3"/>
       <c r="N179" s="3"/>
     </row>
-    <row r="180" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="H180" s="3"/>
@@ -9553,7 +9559,7 @@
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
     </row>
-    <row r="181" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="H181" s="3"/>
@@ -9564,7 +9570,7 @@
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
     </row>
-    <row r="182" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="H182" s="3"/>
@@ -9575,7 +9581,7 @@
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
     </row>
-    <row r="183" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="H183" s="3"/>
@@ -9586,7 +9592,7 @@
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
     </row>
-    <row r="184" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="H184" s="3"/>
@@ -9597,7 +9603,7 @@
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
     </row>
-    <row r="185" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="H185" s="3"/>
@@ -9608,7 +9614,7 @@
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
     </row>
-    <row r="186" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="H186" s="11" t="s">
@@ -9625,7 +9631,7 @@
       <c r="M186" s="11"/>
       <c r="N186" s="11"/>
     </row>
-    <row r="187" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="H187" s="11" t="s">
@@ -9650,7 +9656,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="188" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="H188" s="11" t="s">
@@ -9673,7 +9679,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="189" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="H189" s="11" t="s">
@@ -9696,7 +9702,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="H190" s="11" t="s">
@@ -9719,7 +9725,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="191" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="H191" s="11" t="s">
@@ -9742,7 +9748,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="H192" s="11" t="s">
@@ -9761,7 +9767,7 @@
       </c>
       <c r="N192" s="12"/>
     </row>
-    <row r="193" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="H193" s="11" t="s">
@@ -9784,7 +9790,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="194" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="H194" s="11" t="s">
@@ -9807,7 +9813,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="195" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="H195" s="11" t="s">
@@ -9830,7 +9836,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="196" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="H196" s="11" t="s">
@@ -9853,7 +9859,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="197" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="H197" s="11" t="s">
@@ -9876,7 +9882,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="198" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="H198" s="11" t="s">
@@ -9899,7 +9905,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="199" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="H199" s="11" t="s">
@@ -9922,7 +9928,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="200" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="H200" s="11" t="s">
@@ -9945,7 +9951,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="201" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="H201" s="11" t="s">
@@ -9968,7 +9974,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="202" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="H202" s="11" t="s">
@@ -9991,7 +9997,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="203" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="H203" s="11" t="s">
@@ -10014,7 +10020,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="204" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="H204" s="11" t="s">
@@ -10037,7 +10043,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="205" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="H205" s="11" t="s">
@@ -10060,7 +10066,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="206" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="H206" s="11" t="s">
@@ -10083,7 +10089,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="207" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="H207" s="44" t="s">
@@ -10100,7 +10106,7 @@
       <c r="M207" s="44"/>
       <c r="N207" s="44"/>
     </row>
-    <row r="208" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="H208" s="3" t="s">
@@ -10117,7 +10123,7 @@
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
     </row>
-    <row r="209" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="H209" s="3" t="s">
@@ -10142,7 +10148,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="210" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="H210" s="3"/>
@@ -10161,7 +10167,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="211" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="H211" s="3"/>
@@ -10182,7 +10188,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="212" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="H212" s="3"/>
@@ -10203,7 +10209,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="213" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="H213" s="3"/>
@@ -10224,7 +10230,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="214" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="H214" s="3"/>
@@ -10245,7 +10251,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="215" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="H215" s="3"/>
@@ -10266,7 +10272,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="216" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="H216" s="3"/>
@@ -10287,7 +10293,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="H217" s="3"/>
@@ -10308,7 +10314,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="H218" s="3"/>
@@ -10329,7 +10335,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="219" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="H219" s="3"/>
@@ -10350,7 +10356,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="220" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H220" s="3"/>
       <c r="I220" s="3" t="s">
         <v>465</v>
@@ -10369,7 +10375,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H221" s="3"/>
       <c r="I221" s="3" t="s">
         <v>464</v>
@@ -10388,7 +10394,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="222" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H222" s="3"/>
       <c r="I222" s="3" t="s">
         <v>465</v>
@@ -10407,7 +10413,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="223" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H223" s="3"/>
       <c r="I223" s="3" t="s">
         <v>464</v>
@@ -10426,7 +10432,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="224" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H224" s="3"/>
       <c r="I224" s="3" t="s">
         <v>465</v>
@@ -10445,7 +10451,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="225" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H225" s="3"/>
       <c r="I225" s="3" t="s">
         <v>464</v>
@@ -10464,7 +10470,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="226" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H226" s="3"/>
       <c r="I226" s="3" t="s">
         <v>465</v>
@@ -10483,7 +10489,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="227" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H227" s="3"/>
       <c r="I227" s="3" t="s">
         <v>464</v>
@@ -10502,7 +10508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="228" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H228" s="3"/>
       <c r="I228" s="3" t="s">
         <v>465</v>
@@ -10521,7 +10527,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="229" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="24"/>
@@ -10534,7 +10540,7 @@
       </c>
       <c r="N229" s="3"/>
     </row>
-    <row r="230" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="24"/>
@@ -10547,7 +10553,7 @@
       </c>
       <c r="N230" s="3"/>
     </row>
-    <row r="231" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H231" s="3"/>
       <c r="I231" s="3" t="s">
         <v>464</v>
@@ -10566,7 +10572,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H232" s="3"/>
       <c r="I232" s="3" t="s">
         <v>465</v>
@@ -10585,7 +10591,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="233" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H233" s="3"/>
       <c r="I233" s="3" t="s">
         <v>464</v>
@@ -10604,7 +10610,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="234" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H234" s="3"/>
       <c r="I234" s="3" t="s">
         <v>465</v>
@@ -10623,7 +10629,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="235" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H235" s="3"/>
       <c r="I235" s="3" t="s">
         <v>464</v>
@@ -10642,7 +10648,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="236" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H236" s="3"/>
       <c r="I236" s="3" t="s">
         <v>465</v>
@@ -10661,7 +10667,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="237" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H237" s="3"/>
       <c r="I237" s="3" t="s">
         <v>464</v>
@@ -10680,7 +10686,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="238" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H238" s="3"/>
       <c r="I238" s="3" t="s">
         <v>465</v>
@@ -10699,7 +10705,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="239" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H239" s="3"/>
       <c r="I239" s="3" t="s">
         <v>464</v>
@@ -10718,7 +10724,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="240" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H240" s="3"/>
       <c r="I240" s="3" t="s">
         <v>465</v>
@@ -10737,7 +10743,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="241" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H241" s="3"/>
       <c r="I241" s="3" t="s">
         <v>464</v>
@@ -10756,7 +10762,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="242" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H242" s="3"/>
       <c r="I242" s="3" t="s">
         <v>465</v>
@@ -10775,7 +10781,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="243" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H243" s="3"/>
       <c r="I243" s="3" t="s">
         <v>464</v>
@@ -10794,7 +10800,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="244" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H244" s="3"/>
       <c r="I244" s="3" t="s">
         <v>465</v>
@@ -10813,7 +10819,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="245" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H245" s="3"/>
       <c r="I245" s="3" t="s">
         <v>464</v>
@@ -10832,7 +10838,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H246" s="3"/>
       <c r="I246" s="3" t="s">
         <v>465</v>
@@ -10851,7 +10857,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="247" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H247" s="3"/>
       <c r="I247" s="3" t="s">
         <v>464</v>
@@ -10870,7 +10876,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="248" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H248" s="3"/>
       <c r="I248" s="3" t="s">
         <v>465</v>
@@ -10889,7 +10895,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="249" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H249" s="3"/>
       <c r="I249" s="3" t="s">
         <v>464</v>
@@ -10908,7 +10914,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="250" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H250" s="3"/>
       <c r="I250" s="3" t="s">
         <v>465</v>
@@ -10927,7 +10933,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="251" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="24"/>
@@ -10940,7 +10946,7 @@
       </c>
       <c r="N251" s="3"/>
     </row>
-    <row r="252" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="24"/>
@@ -10953,7 +10959,7 @@
       </c>
       <c r="N252" s="3"/>
     </row>
-    <row r="253" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H253" s="3"/>
       <c r="I253" s="3" t="s">
         <v>464</v>
@@ -10970,7 +10976,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="254" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H254" s="3"/>
       <c r="I254" s="3" t="s">
         <v>465</v>
@@ -10987,7 +10993,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="255" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H255" s="3"/>
       <c r="I255" s="3" t="s">
         <v>464</v>
@@ -11004,7 +11010,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="256" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H256" s="3"/>
       <c r="I256" s="3" t="s">
         <v>465</v>
@@ -11021,7 +11027,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="257" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H257" s="3"/>
       <c r="I257" s="3" t="s">
         <v>464</v>
@@ -11038,7 +11044,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="258" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H258" s="3"/>
       <c r="I258" s="3" t="s">
         <v>465</v>
@@ -11055,7 +11061,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="259" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H259" s="3"/>
       <c r="I259" s="3" t="s">
         <v>464</v>
@@ -11072,7 +11078,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="260" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H260" s="3"/>
       <c r="I260" s="3" t="s">
         <v>465</v>
@@ -11089,7 +11095,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="261" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H261" s="3"/>
       <c r="I261" s="3" t="s">
         <v>464</v>
@@ -11106,7 +11112,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="262" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H262" s="3"/>
       <c r="I262" s="3" t="s">
         <v>465</v>
@@ -11123,7 +11129,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="263" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H263" s="3"/>
       <c r="I263" s="3" t="s">
         <v>464</v>
@@ -11140,7 +11146,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="264" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H264" s="3"/>
       <c r="I264" s="3" t="s">
         <v>465</v>
@@ -11157,7 +11163,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="265" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H265" s="3"/>
       <c r="I265" s="3" t="s">
         <v>464</v>
@@ -11174,7 +11180,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="266" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H266" s="3"/>
       <c r="I266" s="3" t="s">
         <v>465</v>
@@ -11191,7 +11197,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="267" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H267" s="3"/>
       <c r="I267" s="3" t="s">
         <v>464</v>
@@ -11208,7 +11214,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="268" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H268" s="3"/>
       <c r="I268" s="3" t="s">
         <v>465</v>
@@ -11225,7 +11231,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="269" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H269" s="3"/>
       <c r="I269" s="3" t="s">
         <v>464</v>
@@ -11242,7 +11248,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="270" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H270" s="3"/>
       <c r="I270" s="3" t="s">
         <v>465</v>
@@ -11259,7 +11265,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="271" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H271" s="3"/>
       <c r="I271" s="3" t="s">
         <v>464</v>
@@ -11276,7 +11282,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="272" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H272" s="3"/>
       <c r="I272" s="3" t="s">
         <v>465</v>
@@ -11293,7 +11299,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="273" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="24"/>
@@ -11306,7 +11312,7 @@
       </c>
       <c r="N273" s="3"/>
     </row>
-    <row r="274" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="24"/>
@@ -11319,7 +11325,7 @@
       </c>
       <c r="N274" s="3"/>
     </row>
-    <row r="275" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="H275" s="48"/>
@@ -11330,7 +11336,7 @@
       <c r="M275" s="50"/>
       <c r="N275" s="48"/>
     </row>
-    <row r="276" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="H276" s="48"/>
@@ -11341,7 +11347,7 @@
       <c r="M276" s="50"/>
       <c r="N276" s="48"/>
     </row>
-    <row r="277" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H277" s="48" t="s">
         <v>155</v>
       </c>
@@ -11362,7 +11368,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="278" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H278" s="48" t="s">
         <v>155</v>
       </c>
@@ -11381,7 +11387,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="279" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H279" s="48" t="s">
         <v>155</v>
       </c>
@@ -11400,7 +11406,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="280" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H280" s="48" t="s">
         <v>155</v>
       </c>
@@ -11419,7 +11425,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="281" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H281" s="48" t="s">
         <v>155</v>
       </c>
@@ -11438,7 +11444,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="282" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H282" s="48" t="s">
         <v>155</v>
       </c>
@@ -11457,7 +11463,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="283" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H283" s="48" t="s">
         <v>155</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="284" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H284" s="48" t="s">
         <v>155</v>
       </c>
@@ -11495,7 +11501,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="285" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H285" s="48" t="s">
         <v>155</v>
       </c>
@@ -11514,7 +11520,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H286" s="48" t="s">
         <v>155</v>
       </c>
@@ -11533,7 +11539,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="287" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H287" s="48" t="s">
         <v>155</v>
       </c>
@@ -11552,7 +11558,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="288" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:14" x14ac:dyDescent="0.35">
       <c r="H288" s="48" t="s">
         <v>155</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="289" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H289" s="48" t="s">
         <v>155</v>
       </c>
@@ -11590,7 +11596,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="290" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H290" s="48" t="s">
         <v>155</v>
       </c>
@@ -11609,7 +11615,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="291" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H291" s="48" t="s">
         <v>155</v>
       </c>
@@ -11628,7 +11634,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="292" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H292" s="48" t="s">
         <v>155</v>
       </c>
@@ -11647,7 +11653,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="293" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H293" s="48" t="s">
         <v>155</v>
       </c>
@@ -11666,7 +11672,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="294" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H294" s="48" t="s">
         <v>155</v>
       </c>
@@ -11685,7 +11691,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="295" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H295" s="48" t="s">
         <v>155</v>
       </c>
@@ -11704,7 +11710,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="296" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H296" s="48" t="s">
         <v>155</v>
       </c>
@@ -11723,7 +11729,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="297" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H297" s="48" t="s">
         <v>155</v>
       </c>
@@ -11738,7 +11744,7 @@
       </c>
       <c r="N297" s="50"/>
     </row>
-    <row r="298" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H298" s="48" t="s">
         <v>155</v>
       </c>
@@ -11753,7 +11759,7 @@
       </c>
       <c r="N298" s="50"/>
     </row>
-    <row r="299" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H299" s="11" t="s">
         <v>156</v>
       </c>
@@ -11768,7 +11774,7 @@
       <c r="M299" s="11"/>
       <c r="N299" s="11"/>
     </row>
-    <row r="300" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H300" s="11" t="s">
         <v>156</v>
       </c>
@@ -11789,7 +11795,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H301" s="11" t="s">
         <v>156</v>
       </c>
@@ -11808,7 +11814,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H302" s="11" t="s">
         <v>156</v>
       </c>
@@ -11827,7 +11833,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H303" s="11" t="s">
         <v>156</v>
       </c>
@@ -11846,7 +11852,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H304" s="11" t="s">
         <v>156</v>
       </c>
@@ -11865,7 +11871,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H305" s="11" t="s">
         <v>156</v>
       </c>
@@ -11884,7 +11890,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H306" s="11" t="s">
         <v>156</v>
       </c>
@@ -11903,7 +11909,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H307" s="11" t="s">
         <v>156</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H308" s="11" t="s">
         <v>156</v>
       </c>
@@ -11941,7 +11947,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H309" s="11" t="s">
         <v>156</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H310" s="11" t="s">
         <v>156</v>
       </c>
@@ -11979,7 +11985,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H311" s="11" t="s">
         <v>156</v>
       </c>
@@ -11998,7 +12004,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H312" s="11" t="s">
         <v>156</v>
       </c>
@@ -12017,7 +12023,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H313" s="11" t="s">
         <v>156</v>
       </c>
@@ -12036,7 +12042,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H314" s="11" t="s">
         <v>156</v>
       </c>
@@ -12055,7 +12061,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H315" s="11" t="s">
         <v>156</v>
       </c>
@@ -12074,7 +12080,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H316" s="11" t="s">
         <v>156</v>
       </c>
@@ -12093,7 +12099,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H317" s="11" t="s">
         <v>156</v>
       </c>
@@ -12112,7 +12118,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H318" s="11" t="s">
         <v>156</v>
       </c>
@@ -12131,7 +12137,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H319" s="11" t="s">
         <v>156</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H320" s="11" t="s">
         <v>156</v>
       </c>
@@ -12169,7 +12175,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H321" s="11" t="s">
         <v>156</v>
       </c>
@@ -12188,7 +12194,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H322" s="11" t="s">
         <v>156</v>
       </c>
@@ -12207,7 +12213,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H323" s="11" t="s">
         <v>156</v>
       </c>
@@ -12222,7 +12228,7 @@
       </c>
       <c r="N323" s="11"/>
     </row>
-    <row r="324" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H324" s="11" t="s">
         <v>156</v>
       </c>
@@ -12237,7 +12243,7 @@
       </c>
       <c r="N324" s="11"/>
     </row>
-    <row r="325" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H325" s="11" t="s">
         <v>156</v>
       </c>
@@ -12252,7 +12258,7 @@
       </c>
       <c r="N325" s="11"/>
     </row>
-    <row r="326" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H326" s="11" t="s">
         <v>156</v>
       </c>
@@ -12267,7 +12273,7 @@
       </c>
       <c r="N326" s="11"/>
     </row>
-    <row r="327" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H327" s="11" t="s">
         <v>156</v>
       </c>
@@ -12282,7 +12288,7 @@
       </c>
       <c r="N327" s="11"/>
     </row>
-    <row r="328" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H328" s="11" t="s">
         <v>156</v>
       </c>
@@ -12297,7 +12303,7 @@
       </c>
       <c r="N328" s="11"/>
     </row>
-    <row r="329" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H329" s="11" t="s">
         <v>156</v>
       </c>
@@ -12312,7 +12318,7 @@
       </c>
       <c r="N329" s="11"/>
     </row>
-    <row r="330" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H330" s="11" t="s">
         <v>156</v>
       </c>
@@ -12327,7 +12333,7 @@
       </c>
       <c r="N330" s="11"/>
     </row>
-    <row r="331" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H331" s="11" t="s">
         <v>156</v>
       </c>
@@ -12342,7 +12348,7 @@
       </c>
       <c r="N331" s="11"/>
     </row>
-    <row r="332" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H332" s="3" t="s">
         <v>484</v>
       </c>
@@ -12360,7 +12366,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="333" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H333" s="51" t="s">
         <v>484</v>
       </c>
@@ -12386,7 +12392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H334" s="51" t="s">
         <v>484</v>
       </c>
@@ -12408,7 +12414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H335" s="51"/>
       <c r="I335" s="51" t="s">
         <v>478</v>
@@ -12430,7 +12436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H336" s="51"/>
       <c r="I336" s="51" t="s">
         <v>465</v>
@@ -12452,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H337" s="51"/>
       <c r="I337" s="51" t="s">
         <v>478</v>
@@ -12474,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H338" s="51"/>
       <c r="I338" s="51" t="s">
         <v>465</v>
@@ -12496,7 +12502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H339" s="51"/>
       <c r="I339" s="51" t="s">
         <v>478</v>
@@ -12518,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H340" s="51"/>
       <c r="I340" s="51" t="s">
         <v>465</v>
@@ -12540,7 +12546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H341" s="51"/>
       <c r="I341" s="51" t="s">
         <v>478</v>
@@ -12562,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H342" s="51"/>
       <c r="I342" s="51" t="s">
         <v>465</v>
@@ -12584,7 +12590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H343" s="51"/>
       <c r="I343" s="51" t="s">
         <v>478</v>
@@ -12606,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H344" s="51"/>
       <c r="I344" s="51" t="s">
         <v>465</v>
@@ -12628,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H345" s="51"/>
       <c r="I345" s="51" t="s">
         <v>478</v>
@@ -12650,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H346" s="51"/>
       <c r="I346" s="51" t="s">
         <v>465</v>
@@ -12672,7 +12678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H347" s="51"/>
       <c r="I347" s="51" t="s">
         <v>478</v>
@@ -12694,7 +12700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H348" s="51"/>
       <c r="I348" s="51" t="s">
         <v>465</v>
@@ -12716,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H349" s="3"/>
       <c r="I349" s="3" t="s">
         <v>478</v>
@@ -12738,7 +12744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H350" s="3"/>
       <c r="I350" s="3" t="s">
         <v>465</v>
@@ -12760,7 +12766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H351" s="3"/>
       <c r="I351" s="3" t="s">
         <v>478</v>
@@ -12782,7 +12788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H352" s="3"/>
       <c r="I352" s="3" t="s">
         <v>465</v>
@@ -12804,7 +12810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H353" s="3"/>
       <c r="I353" s="3" t="s">
         <v>478</v>
@@ -12826,7 +12832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H354" s="3"/>
       <c r="I354" s="3" t="s">
         <v>465</v>
@@ -12848,7 +12854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H355" s="3"/>
       <c r="I355" s="3" t="s">
         <v>478</v>
@@ -12870,7 +12876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H356" s="3"/>
       <c r="I356" s="3" t="s">
         <v>465</v>
@@ -12892,7 +12898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H357" s="3"/>
       <c r="I357" s="3" t="s">
         <v>478</v>
@@ -12914,7 +12920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H358" s="3"/>
       <c r="I358" s="3" t="s">
         <v>465</v>
@@ -12936,7 +12942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H359" s="3"/>
       <c r="I359" s="3" t="s">
         <v>478</v>
@@ -12958,7 +12964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H360" s="3"/>
       <c r="I360" s="3" t="s">
         <v>465</v>
@@ -12980,7 +12986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H361" s="3"/>
       <c r="I361" s="3" t="s">
         <v>478</v>
@@ -13002,7 +13008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H362" s="3"/>
       <c r="I362" s="3" t="s">
         <v>465</v>
@@ -13024,7 +13030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="H363" s="3"/>
@@ -13035,7 +13041,7 @@
       <c r="M363" s="5"/>
       <c r="N363" s="3"/>
     </row>
-    <row r="364" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H364" s="3" t="s">
         <v>484</v>
       </c>
@@ -13050,7 +13056,7 @@
       <c r="M364" s="3"/>
       <c r="N364" s="3"/>
     </row>
-    <row r="365" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="H365" s="3"/>
@@ -13065,7 +13071,7 @@
       <c r="M365" s="3"/>
       <c r="N365" s="3"/>
     </row>
-    <row r="366" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H366" s="3"/>
       <c r="I366" s="51" t="s">
         <v>478</v>
@@ -13087,7 +13093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H367" s="3"/>
       <c r="I367" s="51" t="s">
         <v>465</v>
@@ -13109,7 +13115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H368" s="3"/>
       <c r="I368" s="51" t="s">
         <v>510</v>
@@ -13129,7 +13135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H369" s="3"/>
       <c r="I369" s="51" t="s">
         <v>511</v>
@@ -13149,7 +13155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H370" s="3"/>
       <c r="I370" s="51" t="s">
         <v>517</v>
@@ -13169,7 +13175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H371" s="3"/>
       <c r="I371" s="51" t="s">
         <v>518</v>
@@ -13189,7 +13195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H372" s="3"/>
       <c r="I372" s="51" t="s">
         <v>519</v>
@@ -13209,7 +13215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H373" s="3"/>
       <c r="I373" s="51" t="s">
         <v>520</v>
@@ -13229,7 +13235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H374" s="3"/>
       <c r="I374" s="51" t="s">
         <v>521</v>
@@ -13249,7 +13255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H375" s="3"/>
       <c r="I375" s="51" t="s">
         <v>522</v>
@@ -13269,7 +13275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H376" s="3"/>
       <c r="I376" s="51" t="s">
         <v>523</v>
@@ -13289,7 +13295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H377" s="3"/>
       <c r="I377" s="51" t="s">
         <v>524</v>
@@ -13309,7 +13315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="H378" s="3"/>
@@ -13336,7 +13342,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="379" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="H379" s="3"/>
@@ -13363,7 +13369,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="380" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H380" s="3"/>
       <c r="I380" s="3" t="s">
         <v>525</v>
@@ -13383,7 +13389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H381" s="3"/>
       <c r="I381" s="3" t="s">
         <v>526</v>
@@ -13403,7 +13409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H382" s="3"/>
       <c r="I382" s="3" t="s">
         <v>527</v>
@@ -13423,7 +13429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H383" s="3"/>
       <c r="I383" s="3" t="s">
         <v>528</v>
@@ -13443,7 +13449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H384" s="3"/>
       <c r="I384" s="3" t="s">
         <v>529</v>
@@ -13463,7 +13469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H385" s="3"/>
       <c r="I385" s="3" t="s">
         <v>530</v>
@@ -13483,7 +13489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H386" s="3"/>
       <c r="I386" s="3" t="s">
         <v>531</v>
@@ -13503,7 +13509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H387" s="3"/>
       <c r="I387" s="3" t="s">
         <v>532</v>
@@ -13523,7 +13529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H388" s="3"/>
       <c r="I388" s="3" t="s">
         <v>533</v>
@@ -13543,7 +13549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:15" x14ac:dyDescent="0.35">
       <c r="H389" s="3"/>
       <c r="I389" s="3" t="s">
         <v>534</v>
@@ -13563,7 +13569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="H390" s="3"/>
@@ -13587,7 +13593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="H391" s="3"/>
@@ -13611,7 +13617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="H392" s="3"/>
@@ -13635,7 +13641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="H393" s="3"/>
@@ -13659,7 +13665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="H394" s="3"/>
@@ -13683,7 +13689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="H395" s="3"/>
@@ -13707,7 +13713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="H396" s="3"/>
@@ -13731,7 +13737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="H397" s="3"/>
@@ -13755,7 +13761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="H398" s="3"/>
@@ -13779,7 +13785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="H399" s="3"/>
@@ -13803,7 +13809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="H400" s="3"/>
@@ -13827,7 +13833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="H401" s="3"/>
@@ -13851,7 +13857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="H402" s="3"/>
@@ -13875,7 +13881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="H403" s="3"/>
@@ -13899,7 +13905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="H404" s="3"/>
@@ -13923,7 +13929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="H405" s="3"/>
@@ -13947,7 +13953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="H406" s="3"/>
@@ -13958,7 +13964,7 @@
       <c r="M406" s="5"/>
       <c r="N406" s="3"/>
     </row>
-    <row r="407" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="H407" s="3"/>
@@ -13969,7 +13975,7 @@
       <c r="M407" s="5"/>
       <c r="N407" s="3"/>
     </row>
-    <row r="408" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="H408" s="3"/>
@@ -13980,7 +13986,7 @@
       <c r="M408" s="5"/>
       <c r="N408" s="3"/>
     </row>
-    <row r="409" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="H409" s="3"/>
@@ -13991,7 +13997,7 @@
       <c r="M409" s="5"/>
       <c r="N409" s="3"/>
     </row>
-    <row r="410" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="H410" s="3"/>
@@ -14002,7 +14008,7 @@
       <c r="M410" s="5"/>
       <c r="N410" s="3"/>
     </row>
-    <row r="411" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="H411" s="3"/>
@@ -14013,7 +14019,7 @@
       <c r="M411" s="5"/>
       <c r="N411" s="3"/>
     </row>
-    <row r="412" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="H412" s="3"/>
@@ -14024,7 +14030,7 @@
       <c r="M412" s="5"/>
       <c r="N412" s="3"/>
     </row>
-    <row r="413" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="H413" s="3"/>
@@ -14035,7 +14041,7 @@
       <c r="M413" s="5"/>
       <c r="N413" s="3"/>
     </row>
-    <row r="414" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="H414" s="3"/>
@@ -14046,7 +14052,7 @@
       <c r="M414" s="5"/>
       <c r="N414" s="3"/>
     </row>
-    <row r="415" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="H415" s="3"/>
@@ -14057,7 +14063,7 @@
       <c r="M415" s="5"/>
       <c r="N415" s="3"/>
     </row>
-    <row r="416" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="H416" s="3"/>
@@ -14068,7 +14074,7 @@
       <c r="M416" s="5"/>
       <c r="N416" s="3"/>
     </row>
-    <row r="417" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="H417" s="3"/>
@@ -14079,7 +14085,7 @@
       <c r="M417" s="5"/>
       <c r="N417" s="3"/>
     </row>
-    <row r="418" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="H418" s="3"/>
@@ -14090,7 +14096,7 @@
       <c r="M418" s="5"/>
       <c r="N418" s="3"/>
     </row>
-    <row r="419" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="H419" s="3"/>
@@ -14101,7 +14107,7 @@
       <c r="M419" s="5"/>
       <c r="N419" s="3"/>
     </row>
-    <row r="420" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="H420" s="3"/>
@@ -14112,7 +14118,7 @@
       <c r="M420" s="5"/>
       <c r="N420" s="3"/>
     </row>
-    <row r="421" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H421" s="11" t="s">
         <v>156</v>
       </c>
@@ -14125,7 +14131,7 @@
       <c r="M421" s="11"/>
       <c r="N421" s="11"/>
     </row>
-    <row r="422" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H422" s="11" t="s">
         <v>156</v>
       </c>
@@ -14145,7 +14151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="423" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H423" s="11" t="s">
         <v>156</v>
       </c>
@@ -14165,7 +14171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="424" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H424" s="11" t="s">
         <v>156</v>
       </c>
@@ -14185,7 +14191,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="425" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H425" s="11" t="s">
         <v>156</v>
       </c>
@@ -14205,7 +14211,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="426" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H426" s="11" t="s">
         <v>156</v>
       </c>
@@ -14225,7 +14231,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="427" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H427" s="11" t="s">
         <v>156</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="428" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H428" s="11" t="s">
         <v>156</v>
       </c>
@@ -14265,7 +14271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="429" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H429" s="11" t="s">
         <v>156</v>
       </c>
@@ -14285,7 +14291,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="430" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H430" s="11" t="s">
         <v>156</v>
       </c>
@@ -14305,7 +14311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="431" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H431" s="11" t="s">
         <v>156</v>
       </c>
@@ -14325,7 +14331,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="432" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H432" s="11" t="s">
         <v>156</v>
       </c>
@@ -14345,7 +14351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="433" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H433" s="11" t="s">
         <v>156</v>
       </c>
@@ -14365,7 +14371,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="434" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H434" s="11" t="s">
         <v>156</v>
       </c>
@@ -14385,7 +14391,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="435" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H435" s="11" t="s">
         <v>156</v>
       </c>
@@ -14405,7 +14411,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="436" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H436" s="11" t="s">
         <v>156</v>
       </c>
@@ -14425,7 +14431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="437" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H437" s="11" t="s">
         <v>156</v>
       </c>
@@ -14445,7 +14451,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="438" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H438" s="11" t="s">
         <v>156</v>
       </c>
@@ -14465,7 +14471,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="439" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H439" s="11" t="s">
         <v>156</v>
       </c>
@@ -14485,7 +14491,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="440" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H440" s="11" t="s">
         <v>156</v>
       </c>
@@ -14505,7 +14511,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="441" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H441" s="11" t="s">
         <v>156</v>
       </c>
@@ -14525,7 +14531,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="442" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H442" s="61" t="s">
         <v>156</v>
       </c>
@@ -14540,7 +14546,7 @@
       <c r="M442" s="61"/>
       <c r="N442" s="61"/>
     </row>
-    <row r="443" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H443" s="61" t="s">
         <v>156</v>
       </c>
@@ -14556,7 +14562,7 @@
       <c r="N443" s="61"/>
       <c r="P443" s="22"/>
     </row>
-    <row r="444" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H444" s="61" t="s">
         <v>156</v>
       </c>
@@ -14578,7 +14584,7 @@
       </c>
       <c r="P444" s="18"/>
     </row>
-    <row r="445" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H445" s="61" t="s">
         <v>156</v>
       </c>
@@ -14600,7 +14606,7 @@
       </c>
       <c r="P445" s="18"/>
     </row>
-    <row r="446" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H446" s="61" t="s">
         <v>156</v>
       </c>
@@ -14622,7 +14628,7 @@
       </c>
       <c r="P446" s="18"/>
     </row>
-    <row r="447" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H447" s="61" t="s">
         <v>156</v>
       </c>
@@ -14644,7 +14650,7 @@
       </c>
       <c r="P447" s="18"/>
     </row>
-    <row r="448" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H448" s="61" t="s">
         <v>156</v>
       </c>
@@ -14666,7 +14672,7 @@
       </c>
       <c r="P448" s="18"/>
     </row>
-    <row r="449" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H449" s="61" t="s">
         <v>156</v>
       </c>
@@ -14688,7 +14694,7 @@
       </c>
       <c r="P449" s="18"/>
     </row>
-    <row r="450" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H450" s="61" t="s">
         <v>156</v>
       </c>
@@ -14710,7 +14716,7 @@
       </c>
       <c r="P450" s="18"/>
     </row>
-    <row r="451" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H451" s="61" t="s">
         <v>156</v>
       </c>
@@ -14732,7 +14738,7 @@
       </c>
       <c r="P451" s="18"/>
     </row>
-    <row r="452" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H452" s="61" t="s">
         <v>156</v>
       </c>
@@ -14754,7 +14760,7 @@
       </c>
       <c r="P452" s="18"/>
     </row>
-    <row r="453" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H453" s="61" t="s">
         <v>156</v>
       </c>
@@ -14776,7 +14782,7 @@
       </c>
       <c r="P453" s="18"/>
     </row>
-    <row r="454" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H454" s="61" t="s">
         <v>156</v>
       </c>
@@ -14798,7 +14804,7 @@
       </c>
       <c r="P454" s="18"/>
     </row>
-    <row r="455" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H455" s="61" t="s">
         <v>156</v>
       </c>
@@ -14820,7 +14826,7 @@
       </c>
       <c r="P455" s="18"/>
     </row>
-    <row r="456" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H456" s="61" t="s">
         <v>156</v>
       </c>
@@ -14842,7 +14848,7 @@
       </c>
       <c r="P456" s="18"/>
     </row>
-    <row r="457" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H457" s="61" t="s">
         <v>156</v>
       </c>
@@ -14864,7 +14870,7 @@
       </c>
       <c r="P457" s="18"/>
     </row>
-    <row r="458" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H458" s="61" t="s">
         <v>156</v>
       </c>
@@ -14886,7 +14892,7 @@
       </c>
       <c r="P458" s="18"/>
     </row>
-    <row r="459" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H459" s="61"/>
       <c r="I459" s="61"/>
       <c r="J459" s="61"/>
@@ -14896,7 +14902,7 @@
       <c r="N459" s="64"/>
       <c r="P459" s="18"/>
     </row>
-    <row r="460" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H460" s="61"/>
       <c r="I460" s="61"/>
       <c r="J460" s="61"/>
@@ -14906,7 +14912,7 @@
       <c r="N460" s="64"/>
       <c r="P460" s="18"/>
     </row>
-    <row r="461" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H461" s="61"/>
       <c r="I461" s="61"/>
       <c r="J461" s="61"/>
@@ -14916,7 +14922,7 @@
       <c r="N461" s="64"/>
       <c r="P461" s="18"/>
     </row>
-    <row r="462" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H462" s="61"/>
       <c r="I462" s="61"/>
       <c r="J462" s="61"/>
@@ -14926,7 +14932,7 @@
       <c r="N462" s="64"/>
       <c r="P462" s="18"/>
     </row>
-    <row r="463" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H463" s="11" t="s">
         <v>156</v>
       </c>
@@ -14942,7 +14948,7 @@
       <c r="N463" s="11"/>
       <c r="P463" s="18"/>
     </row>
-    <row r="464" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H464" s="11" t="s">
         <v>156</v>
       </c>
@@ -14958,7 +14964,7 @@
       <c r="N464" s="11"/>
       <c r="P464" s="22"/>
     </row>
-    <row r="465" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="H465" s="11" t="s">
@@ -14976,7 +14982,7 @@
       <c r="N465" s="11"/>
       <c r="P465" s="22"/>
     </row>
-    <row r="466" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H466" s="11" t="s">
         <v>156</v>
       </c>
@@ -14997,7 +15003,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="467" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H467" s="11" t="s">
         <v>156</v>
       </c>
@@ -15018,7 +15024,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="468" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H468" s="11" t="s">
         <v>156</v>
       </c>
@@ -15039,7 +15045,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="469" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H469" s="11" t="s">
         <v>156</v>
       </c>
@@ -15060,7 +15066,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="470" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H470" s="11" t="s">
         <v>156</v>
       </c>
@@ -15081,7 +15087,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="471" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H471" s="11" t="s">
         <v>156</v>
       </c>
@@ -15102,7 +15108,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="472" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H472" s="11" t="s">
         <v>156</v>
       </c>
@@ -15123,7 +15129,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="473" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H473" s="11" t="s">
         <v>156</v>
       </c>
@@ -15144,7 +15150,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="474" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H474" s="11" t="s">
         <v>156</v>
       </c>
@@ -15165,7 +15171,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="475" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H475" s="11" t="s">
         <v>156</v>
       </c>
@@ -15186,7 +15192,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="476" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H476" s="2" t="s">
         <v>156</v>
       </c>
@@ -15207,7 +15213,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="477" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H477" s="2" t="s">
         <v>156</v>
       </c>
@@ -15228,7 +15234,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="478" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H478" s="2" t="s">
         <v>156</v>
       </c>
@@ -15249,7 +15255,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="479" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H479" s="2" t="s">
         <v>156</v>
       </c>
@@ -15270,7 +15276,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="480" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:16" x14ac:dyDescent="0.35">
       <c r="H480" s="2" t="s">
         <v>156</v>
       </c>
@@ -15291,7 +15297,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="481" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H481" s="11"/>
       <c r="I481" s="11"/>
       <c r="J481" s="11"/>
@@ -15300,7 +15306,7 @@
       <c r="M481" s="14"/>
       <c r="N481" s="12"/>
     </row>
-    <row r="482" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H482" s="11"/>
       <c r="I482" s="11"/>
       <c r="J482" s="11"/>
@@ -15309,7 +15315,7 @@
       <c r="M482" s="14"/>
       <c r="N482" s="12"/>
     </row>
-    <row r="483" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H483" s="11"/>
       <c r="I483" s="11"/>
       <c r="J483" s="11"/>
@@ -15318,7 +15324,7 @@
       <c r="M483" s="14"/>
       <c r="N483" s="12"/>
     </row>
-    <row r="484" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H484" s="11"/>
       <c r="I484" s="11"/>
       <c r="J484" s="11"/>
@@ -15350,18 +15356,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -15381,7 +15387,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>402</v>
       </c>
@@ -15399,7 +15405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="str">
         <f>'AP1 Instruments'!AL3</f>
         <v>UL Right Computer</v>
@@ -15421,7 +15427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="str">
         <f>'AP1 Instruments'!AL13</f>
         <v>GPIB-Ethernet Converter</v>
@@ -15443,7 +15449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="str">
         <f>'AP1 Instruments'!AL8</f>
         <v>UL Left Computer</v>
@@ -15465,7 +15471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>402</v>
       </c>
@@ -15477,7 +15483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="str">
         <f>'AP1 Instruments'!AP3</f>
         <v>Wash Performance Computer</v>
@@ -15499,7 +15505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="27"/>
       <c r="C8" s="17"/>
@@ -15509,7 +15515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="27"/>
       <c r="C9" s="17"/>
@@ -15519,7 +15525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="27"/>
       <c r="C10" s="17"/>
@@ -15529,7 +15535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="27"/>
       <c r="C11" s="17"/>
@@ -15539,7 +15545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="str">
         <f>'AP1 Instruments'!A3</f>
         <v>2nd Floor Server</v>
@@ -15561,7 +15567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="str">
         <f>'AP1 Instruments'!A5</f>
         <v>Raid Drive</v>
@@ -15583,7 +15589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>402</v>
       </c>
@@ -15595,7 +15601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="27"/>
       <c r="C15" s="17"/>
@@ -15605,7 +15611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="27"/>
       <c r="C16" s="17"/>
@@ -15615,7 +15621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="27"/>
       <c r="C17" s="17"/>
@@ -15625,7 +15631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>811</v>
       </c>
@@ -15645,7 +15651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>809</v>
       </c>
@@ -15665,7 +15671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>807</v>
       </c>
@@ -15685,7 +15691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="str">
         <f>'AP1 Instruments'!AG3</f>
         <v>1 West Station Computer</v>
@@ -15707,7 +15713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>402</v>
       </c>
@@ -15719,7 +15725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>838</v>
       </c>
@@ -15739,7 +15745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="str">
         <f>'AP1 Instruments'!AG11</f>
         <v>Temperature Probe 2</v>
@@ -15761,7 +15767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="str">
         <f>'AP1 Instruments'!AG12</f>
         <v>Temperature Probe 3</v>
@@ -15783,7 +15789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="27"/>
       <c r="C26" s="17"/>
@@ -15793,7 +15799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="27"/>
       <c r="C27" s="17"/>
@@ -15803,7 +15809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="27"/>
       <c r="C28" s="17"/>
@@ -15813,7 +15819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="27"/>
       <c r="C29" s="17"/>
@@ -15823,7 +15829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="27"/>
       <c r="C30" s="17"/>
@@ -15833,7 +15839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="str">
         <f>'AP1 Instruments'!AG22</f>
         <v>2: East Station Computer</v>
@@ -15855,7 +15861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="str">
         <f>'AP1 Instruments'!A4</f>
         <v>3rd Floor Server</v>
@@ -15877,7 +15883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="str">
         <f>'AP1 Instruments'!AG31</f>
         <v>Temperature Probe 2</v>
@@ -15899,7 +15905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="27"/>
       <c r="C34" s="17"/>
@@ -15909,7 +15915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="str">
         <f>'AP1 Instruments'!AG30</f>
         <v>Temperature Probe 1</v>
@@ -15931,17 +15937,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="C36" s="17">
+        <v>192</v>
+      </c>
+      <c r="D36" s="17">
+        <v>168</v>
+      </c>
+      <c r="E36" s="17">
+        <v>1</v>
+      </c>
       <c r="F36" s="17">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
       <c r="B37" s="27"/>
       <c r="C37" s="17"/>
@@ -15951,7 +15967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="27"/>
       <c r="C38" s="17"/>
@@ -15961,7 +15977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
       <c r="B39" s="27"/>
       <c r="C39" s="17"/>
@@ -15971,7 +15987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="27"/>
       <c r="C40" s="17"/>
@@ -15981,7 +15997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="str">
         <f>'AP1 Instruments'!AG40</f>
         <v>3: ESPEC Left Computer</v>
@@ -16003,7 +16019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="str">
         <f>'AP1 Instruments'!AG48</f>
         <v>Temperature Probe 1</v>
@@ -16025,7 +16041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="str">
         <f>'AP1 Instruments'!AG67</f>
         <v>Temperature Probe 1</v>
@@ -16047,7 +16063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="27"/>
       <c r="C44" s="17"/>
@@ -16057,7 +16073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>716</v>
       </c>
@@ -16077,7 +16093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>717</v>
       </c>
@@ -16097,7 +16113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>718</v>
       </c>
@@ -16117,7 +16133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>719</v>
       </c>
@@ -16137,7 +16153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>720</v>
       </c>
@@ -16157,7 +16173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="27"/>
       <c r="C50" s="17"/>
@@ -16167,7 +16183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17"/>
       <c r="B51" s="27"/>
       <c r="C51" s="17"/>
@@ -16177,7 +16193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="str">
         <f>'AP1 Instruments'!Y7</f>
         <v>Station 3 Computer-Wireless</v>
@@ -16199,7 +16215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="str">
         <f>'AP1 Instruments'!Y9</f>
         <v>Station 4 Computer-Wireless</v>
@@ -16221,7 +16237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="27"/>
       <c r="C54" s="17"/>
@@ -16231,7 +16247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17"/>
       <c r="B55" s="27"/>
       <c r="C55" s="17"/>
@@ -16241,7 +16257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="str">
         <f>'AP1 Instruments'!E52</f>
         <v>Washer DOE Station 8 Computer</v>
@@ -16263,7 +16279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="33" t="s">
         <v>402</v>
       </c>
@@ -16275,7 +16291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
         <v>402</v>
       </c>
@@ -16287,7 +16303,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="str">
         <f>'AP1 Instruments'!E53</f>
         <v>Washer DOE Station 8 WT300</v>
@@ -16309,7 +16325,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="str">
         <f>'AP1 Instruments'!E54</f>
         <v>Washer DOE Station 8 34972A</v>
@@ -16331,7 +16347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17"/>
       <c r="B61" s="27"/>
       <c r="C61" s="17"/>
@@ -16341,7 +16357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17"/>
       <c r="B62" s="27"/>
       <c r="C62" s="17"/>
@@ -16351,7 +16367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17"/>
       <c r="B63" s="27"/>
       <c r="C63" s="17"/>
@@ -16361,7 +16377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
         <v>402</v>
       </c>
@@ -16373,7 +16389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17"/>
       <c r="B65" s="27"/>
       <c r="C65" s="17"/>
@@ -16383,7 +16399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17"/>
       <c r="B66" s="27"/>
       <c r="C66" s="17"/>
@@ -16393,7 +16409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17"/>
       <c r="B67" s="27"/>
       <c r="C67" s="17"/>
@@ -16403,7 +16419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17"/>
       <c r="B68" s="27"/>
       <c r="C68" s="17"/>
@@ -16413,7 +16429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17"/>
       <c r="B69" s="27"/>
       <c r="C69" s="17"/>
@@ -16423,7 +16439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17"/>
       <c r="B70" s="27"/>
       <c r="C70" s="17"/>
@@ -16433,7 +16449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17"/>
       <c r="B71" s="27"/>
       <c r="C71" s="17"/>
@@ -16443,12 +16459,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F72" s="17">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17"/>
       <c r="B73" s="27"/>
       <c r="C73" s="17"/>
@@ -16458,7 +16474,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="str">
         <f>'AP1 Instruments'!E5</f>
         <v>Washer DOE Station 1 34972A</v>
@@ -16480,7 +16496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17"/>
       <c r="B75" s="27"/>
       <c r="C75" s="17"/>
@@ -16490,7 +16506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17"/>
       <c r="B76" s="27"/>
       <c r="C76" s="17"/>
@@ -16500,7 +16516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
         <v>402</v>
       </c>
@@ -16512,7 +16528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17"/>
       <c r="B78" s="27"/>
       <c r="C78" s="17"/>
@@ -16522,7 +16538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17"/>
       <c r="B79" s="27"/>
       <c r="C79" s="17"/>
@@ -16532,7 +16548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="str">
         <f>'AP1 Instruments'!E3</f>
         <v>Washer DOE Station 1 Computer</v>
@@ -16554,7 +16570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17"/>
       <c r="B81" s="27"/>
       <c r="C81" s="17"/>
@@ -16564,7 +16580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="str">
         <f>'AP1 Instruments'!E25</f>
         <v>Washer DOE Station 4 WT300</v>
@@ -16586,7 +16602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="str">
         <f>'AP1 Instruments'!E24</f>
         <v>Washer DOE Station 4 Computer</v>
@@ -16608,7 +16624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="str">
         <f>'AP1 Instruments'!E26</f>
         <v>Washer DOE Station 4 34972A</v>
@@ -16630,7 +16646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
         <v>402</v>
       </c>
@@ -16642,7 +16658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="str">
         <f>'AP1 Instruments'!E17</f>
         <v>Washer DOE Station 3 Computer</v>
@@ -16664,7 +16680,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="str">
         <f>'AP1 Instruments'!E18</f>
         <v>Washer DOE Station 3 WT300</v>
@@ -16685,7 +16701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="str">
         <f>'AP1 Instruments'!E19</f>
         <v>Washer DOE Station 3 34972A</v>
@@ -16707,7 +16723,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>402</v>
       </c>
@@ -16719,7 +16735,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="17"/>
       <c r="B90" s="27"/>
       <c r="C90" s="17"/>
@@ -16729,7 +16745,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="17"/>
       <c r="B91" s="27"/>
       <c r="C91" s="17"/>
@@ -16739,7 +16755,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="17"/>
       <c r="B92" s="27"/>
       <c r="C92" s="17"/>
@@ -16749,7 +16765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="17"/>
       <c r="B93" s="27"/>
       <c r="C93" s="17"/>
@@ -16759,7 +16775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="17"/>
       <c r="B94" s="27"/>
       <c r="C94" s="17"/>
@@ -16769,7 +16785,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="17"/>
       <c r="B95" s="27"/>
       <c r="C95" s="17"/>
@@ -16779,7 +16795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="17"/>
       <c r="B96" s="27"/>
       <c r="C96" s="17"/>
@@ -16789,7 +16805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="33" t="s">
         <v>402</v>
       </c>
@@ -16801,7 +16817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="17"/>
       <c r="B98" s="27"/>
       <c r="C98" s="17"/>
@@ -16811,7 +16827,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="17"/>
       <c r="B99" s="27"/>
       <c r="C99" s="17"/>
@@ -16821,7 +16837,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="17"/>
       <c r="B100" s="27"/>
       <c r="C100" s="17"/>
@@ -16831,7 +16847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="17"/>
       <c r="B101" s="27"/>
       <c r="C101" s="17"/>
@@ -16841,7 +16857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="17"/>
       <c r="B102" s="27"/>
       <c r="C102" s="17"/>
@@ -16851,7 +16867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="17"/>
       <c r="B103" s="27"/>
       <c r="C103" s="17"/>
@@ -16861,7 +16877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="17"/>
       <c r="B104" s="27"/>
       <c r="C104" s="17"/>
@@ -16871,7 +16887,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
         <v>613</v>
       </c>
@@ -16891,7 +16907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
         <v>842</v>
       </c>
@@ -16911,7 +16927,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="17"/>
       <c r="B107" s="27"/>
       <c r="C107" s="17"/>
@@ -16921,7 +16937,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="17"/>
       <c r="B108" s="27"/>
       <c r="C108" s="17"/>
@@ -16931,7 +16947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="17"/>
       <c r="B109" s="27"/>
       <c r="C109" s="17"/>
@@ -16941,7 +16957,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="17"/>
       <c r="B110" s="27"/>
       <c r="C110" s="17"/>
@@ -16951,7 +16967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="17"/>
       <c r="B111" s="27"/>
       <c r="C111" s="17"/>
@@ -16961,7 +16977,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="17"/>
       <c r="B112" s="27"/>
       <c r="C112" s="17"/>
@@ -16971,7 +16987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="17"/>
       <c r="B113" s="27"/>
       <c r="C113" s="17"/>
@@ -16981,7 +16997,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="17" t="str">
         <f>'AP1 Instruments'!E39</f>
         <v>Washer DOE Station 6 WT300</v>
@@ -17003,7 +17019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="17" t="str">
         <f>'AP1 Instruments'!E38</f>
         <v>Washer DOE Station 6 Computer</v>
@@ -17025,7 +17041,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="17" t="str">
         <f>'AP1 Instruments'!E40</f>
         <v>Washer DOE Station 6 34972A</v>
@@ -17047,7 +17063,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="17" t="str">
         <f>'AP1 Instruments'!E31</f>
         <v>Washer DOE Station 5 Computer</v>
@@ -17069,7 +17085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="17" t="str">
         <f>'AP1 Instruments'!E32</f>
         <v>Washer DOE Station 5 WT300</v>
@@ -17091,7 +17107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="17" t="str">
         <f>'AP1 Instruments'!E33</f>
         <v>Washer DOE Station 5 34972A</v>
@@ -17113,7 +17129,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="17"/>
       <c r="B120" s="27"/>
       <c r="C120" s="17"/>
@@ -17123,7 +17139,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="17" t="str">
         <f>'AP1 Instruments'!E10</f>
         <v>Washer DOE Station 2 Computer</v>
@@ -17145,7 +17161,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="17" t="str">
         <f>'AP1 Instruments'!E11</f>
         <v>Washer DOE Station 2 WT300</v>
@@ -17167,7 +17183,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="17" t="str">
         <f>'AP1 Instruments'!E12</f>
         <v>Washer DOE Station 2 34972A</v>
@@ -17189,7 +17205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="17"/>
       <c r="B124" s="27"/>
       <c r="C124" s="17"/>
@@ -17199,7 +17215,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="17"/>
       <c r="B125" s="27"/>
       <c r="C125" s="17"/>
@@ -17209,7 +17225,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="17"/>
       <c r="B126" s="27"/>
       <c r="C126" s="17"/>
@@ -17219,7 +17235,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="17"/>
       <c r="B127" s="27"/>
       <c r="C127" s="17"/>
@@ -17229,7 +17245,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="17"/>
       <c r="B128" s="27"/>
       <c r="C128" s="17"/>
@@ -17239,7 +17255,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="17"/>
       <c r="B129" s="27"/>
       <c r="C129" s="17"/>
@@ -17249,7 +17265,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="17"/>
       <c r="B130" s="27"/>
       <c r="C130" s="17"/>
@@ -17259,7 +17275,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="17"/>
       <c r="B131" s="27"/>
       <c r="C131" s="17"/>
@@ -17269,7 +17285,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="17"/>
       <c r="B132" s="27"/>
       <c r="C132" s="17"/>
@@ -17279,7 +17295,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="17"/>
       <c r="B133" s="27"/>
       <c r="C133" s="17"/>
@@ -17289,7 +17305,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="17" t="s">
         <v>672</v>
       </c>
@@ -17309,7 +17325,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="17"/>
       <c r="B135" s="27"/>
       <c r="C135" s="17"/>
@@ -17319,7 +17335,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="17"/>
       <c r="B136" s="27"/>
       <c r="C136" s="17"/>
@@ -17329,7 +17345,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="17"/>
       <c r="B137" s="27"/>
       <c r="C137" s="17"/>
@@ -17339,7 +17355,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="17"/>
       <c r="B138" s="27"/>
       <c r="C138" s="17"/>
@@ -17349,7 +17365,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="17"/>
       <c r="B139" s="27"/>
       <c r="C139" s="17"/>
@@ -17359,7 +17375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="17"/>
       <c r="B140" s="27"/>
       <c r="C140" s="17"/>
@@ -17369,7 +17385,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="17" t="str">
         <f>'AP1 Instruments'!E45</f>
         <v>Washer DOE Station 7 Computer</v>
@@ -17391,7 +17407,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="17" t="str">
         <f>'AP1 Instruments'!E46</f>
         <v>Washer DOE Station 7 WT300</v>
@@ -17413,7 +17429,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="17" t="str">
         <f>'AP1 Instruments'!E47</f>
         <v>Washer DOE Station 7 34972A</v>
@@ -17435,7 +17451,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="17"/>
       <c r="B144" s="27"/>
       <c r="C144" s="17"/>
@@ -17445,7 +17461,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="17"/>
       <c r="B145" s="27"/>
       <c r="C145" s="17"/>
@@ -17455,7 +17471,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="17"/>
       <c r="B146" s="27"/>
       <c r="C146" s="17"/>
@@ -17465,7 +17481,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="17"/>
       <c r="B147" s="27"/>
       <c r="C147" s="17"/>
@@ -17475,7 +17491,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="17"/>
       <c r="B148" s="27"/>
       <c r="C148" s="17"/>
@@ -17485,7 +17501,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="17"/>
       <c r="B149" s="27"/>
       <c r="C149" s="17"/>
@@ -17495,7 +17511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="17"/>
       <c r="B150" s="27"/>
       <c r="C150" s="17"/>
@@ -17505,7 +17521,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="17"/>
       <c r="B151" s="27"/>
       <c r="C151" s="17"/>
@@ -17515,7 +17531,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="17"/>
       <c r="B152" s="27"/>
       <c r="C152" s="17"/>
@@ -17525,7 +17541,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="17"/>
       <c r="B153" s="27"/>
       <c r="C153" s="17"/>
@@ -17535,7 +17551,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="17"/>
       <c r="B154" s="27"/>
       <c r="C154" s="17"/>
@@ -17545,7 +17561,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="17"/>
       <c r="B155" s="27"/>
       <c r="C155" s="17"/>
@@ -17555,7 +17571,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="17"/>
       <c r="B156" s="27"/>
       <c r="C156" s="17"/>
@@ -17565,7 +17581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="17"/>
       <c r="B157" s="27"/>
       <c r="C157" s="17"/>
@@ -17575,7 +17591,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="17"/>
       <c r="B158" s="27"/>
       <c r="C158" s="17"/>
@@ -17585,7 +17601,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="17"/>
       <c r="B159" s="27"/>
       <c r="C159" s="17"/>
@@ -17595,7 +17611,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="17"/>
       <c r="B160" s="27"/>
       <c r="C160" s="17"/>
@@ -17605,7 +17621,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="17"/>
       <c r="B161" s="27"/>
       <c r="C161" s="17"/>
@@ -17615,7 +17631,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="17" t="str">
         <f>'AP1 Instruments'!AG59</f>
         <v>4: ESPEC Right Computer</v>
@@ -17637,7 +17653,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="17" t="str">
         <f>'AP1 Instruments'!AG49</f>
         <v>Temperature Probe 2</v>
@@ -17659,7 +17675,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="17" t="str">
         <f>'AP1 Instruments'!AG68</f>
         <v>Temperature Probe 2</v>
@@ -17681,7 +17697,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="17"/>
       <c r="B165" s="27"/>
       <c r="C165" s="17"/>
@@ -17691,7 +17707,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="17"/>
       <c r="B166" s="27"/>
       <c r="C166" s="17"/>
@@ -17701,7 +17717,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="17"/>
       <c r="B167" s="27"/>
       <c r="C167" s="17"/>
@@ -17711,7 +17727,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="17"/>
       <c r="B168" s="27"/>
       <c r="C168" s="17"/>
@@ -17721,7 +17737,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="17"/>
       <c r="B169" s="27"/>
       <c r="C169" s="17"/>
@@ -17731,7 +17747,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="17"/>
       <c r="B170" s="27"/>
       <c r="C170" s="17"/>
@@ -17741,7 +17757,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="17"/>
       <c r="B171" s="27"/>
       <c r="C171" s="17"/>
@@ -17751,7 +17767,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="17"/>
       <c r="B172" s="27"/>
       <c r="C172" s="17"/>
@@ -17761,7 +17777,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="17" t="str">
         <f>'AP1 Instruments'!P3</f>
         <v>Big Room WILT-Bottom Computer</v>
@@ -17783,7 +17799,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="17" t="str">
         <f>'AP1 Instruments'!Q7</f>
         <v>Agilent 1 - 34972A</v>
@@ -17805,7 +17821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="17" t="str">
         <f>'AP1 Instruments'!Q8</f>
         <v>Agilent 2- 34972A</v>
@@ -17827,7 +17843,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="17" t="str">
         <f>'AP1 Instruments'!Q10</f>
         <v>Agilent 4 - 34972A</v>
@@ -17849,7 +17865,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="17" t="str">
         <f>'AP1 Instruments'!Q9</f>
         <v>Agilent 3 - 34972A</v>
@@ -17871,7 +17887,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="17" t="str">
         <f>'AP1 Instruments'!Q11</f>
         <v>Agilent 5 - 34972A</v>
@@ -17893,7 +17909,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="17" t="str">
         <f>'AP1 Instruments'!Q12</f>
         <v>Agilent 6 - 34972A</v>
@@ -17915,7 +17931,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="17" t="str">
         <f>'AP1 Instruments'!Q44</f>
         <v>Agilent 7 - 34972A</v>
@@ -17937,7 +17953,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="17"/>
       <c r="B181" s="27"/>
       <c r="C181" s="17"/>
@@ -17947,7 +17963,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="17" t="s">
         <v>813</v>
       </c>
@@ -17967,7 +17983,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="17" t="str">
         <f>'AP1 Instruments'!I62</f>
         <v>ELAB228 Computer-Row N</v>
@@ -17989,7 +18005,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="17" t="str">
         <f>'AP1 Instruments'!I41</f>
         <v>Row I</v>
@@ -18011,7 +18027,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="17" t="s">
         <v>617</v>
       </c>
@@ -18032,7 +18048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="17" t="str">
         <f>'AP1 Instruments'!I109</f>
         <v>ELAB229-Computer - Row E</v>
@@ -18054,7 +18070,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="17" t="str">
         <f>'AP1 Instruments'!I186</f>
         <v>ELAB220-Computer</v>
@@ -18076,7 +18092,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="17" t="str">
         <f>'AP1 Instruments'!I161</f>
         <v>ELAB219-Computer - Row C and D</v>
@@ -18098,7 +18114,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="17" t="str">
         <f>'AP1 Instruments'!I207</f>
         <v>ELAB224-Computer - Row S</v>
@@ -18120,7 +18136,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="17" t="str">
         <f>'AP1 Instruments'!I299</f>
         <v>ELAB225-Computer - Row A and B</v>
@@ -18142,7 +18158,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="17" t="s">
         <v>556</v>
       </c>
@@ -18163,7 +18179,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="17" t="str">
         <f>'AP1 Instruments'!I3</f>
         <v>ELAB217 Computer -G &amp; H</v>
@@ -18185,7 +18201,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="17" t="s">
         <v>697</v>
       </c>
@@ -18205,7 +18221,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="17" t="s">
         <v>702</v>
       </c>
@@ -18225,7 +18241,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="17" t="s">
         <v>701</v>
       </c>
@@ -18245,7 +18261,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="56" t="s">
         <v>844</v>
       </c>
@@ -18265,7 +18281,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="56" t="s">
         <v>770</v>
       </c>
@@ -18285,7 +18301,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="56" t="s">
         <v>771</v>
       </c>
@@ -18299,7 +18315,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="56" t="s">
         <v>804</v>
       </c>
@@ -18313,7 +18329,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="56" t="s">
         <v>848</v>
       </c>
@@ -18333,7 +18349,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="17"/>
       <c r="B201" s="27"/>
       <c r="C201" s="17"/>
@@ -18343,7 +18359,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="17"/>
       <c r="B202" s="27"/>
       <c r="C202" s="17"/>
@@ -18353,7 +18369,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="17"/>
       <c r="B203" s="27"/>
       <c r="C203" s="17"/>
@@ -18363,7 +18379,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="17"/>
       <c r="B204" s="27"/>
       <c r="C204" s="17"/>
@@ -18373,7 +18389,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="17"/>
       <c r="B205" s="27"/>
       <c r="C205" s="17"/>
@@ -18383,7 +18399,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="17"/>
       <c r="B206" s="27"/>
       <c r="C206" s="17"/>
@@ -18393,7 +18409,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="17"/>
       <c r="B207" s="27"/>
       <c r="C207" s="17"/>
@@ -18403,7 +18419,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="17"/>
       <c r="B208" s="27"/>
       <c r="C208" s="17"/>
@@ -18413,7 +18429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="17"/>
       <c r="B209" s="27"/>
       <c r="C209" s="17"/>
@@ -18423,7 +18439,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="17"/>
       <c r="B210" s="27"/>
       <c r="C210" s="17"/>
@@ -18433,7 +18449,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="17"/>
       <c r="B211" s="27"/>
       <c r="C211" s="17"/>
@@ -18443,7 +18459,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="17"/>
       <c r="B212" s="27"/>
       <c r="C212" s="17"/>
@@ -18453,7 +18469,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="17"/>
       <c r="B213" s="27"/>
       <c r="C213" s="17"/>
@@ -18463,7 +18479,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="17"/>
       <c r="B214" s="27"/>
       <c r="C214" s="17"/>
@@ -18473,7 +18489,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="17"/>
       <c r="B215" s="27"/>
       <c r="C215" s="17"/>
@@ -18483,7 +18499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="17"/>
       <c r="B216" s="27"/>
       <c r="C216" s="17"/>
@@ -18493,7 +18509,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="17"/>
       <c r="B217" s="27"/>
       <c r="C217" s="17"/>
@@ -18503,7 +18519,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="17"/>
       <c r="B218" s="27"/>
       <c r="C218" s="17"/>
@@ -18513,7 +18529,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="17"/>
       <c r="B219" s="27"/>
       <c r="C219" s="17"/>
@@ -18523,7 +18539,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="17"/>
       <c r="B220" s="27"/>
       <c r="C220" s="17"/>
@@ -18533,7 +18549,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="17"/>
       <c r="B221" s="27"/>
       <c r="C221" s="17"/>
@@ -18543,7 +18559,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="17"/>
       <c r="B222" s="27"/>
       <c r="C222" s="17"/>
@@ -18553,7 +18569,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="17"/>
       <c r="B223" s="27"/>
       <c r="C223" s="17"/>
@@ -18563,7 +18579,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="17"/>
       <c r="B224" s="27"/>
       <c r="C224" s="17"/>
@@ -18573,7 +18589,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="17"/>
       <c r="B225" s="27"/>
       <c r="C225" s="17"/>
@@ -18583,7 +18599,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="17"/>
       <c r="B226" s="27"/>
       <c r="C226" s="17"/>
@@ -18593,7 +18609,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="17"/>
       <c r="B227" s="27"/>
       <c r="C227" s="17"/>
@@ -18603,7 +18619,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="56" t="s">
         <v>705</v>
       </c>
@@ -18623,7 +18639,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="17"/>
       <c r="B229" s="27"/>
       <c r="C229" s="17"/>
@@ -18633,7 +18649,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="17"/>
       <c r="B230" s="27"/>
       <c r="C230" s="17"/>
@@ -18643,7 +18659,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="17"/>
       <c r="B231" s="27"/>
       <c r="C231" s="17"/>
@@ -18653,7 +18669,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="46" t="s">
         <v>665</v>
       </c>
@@ -18676,7 +18692,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="17" t="str">
         <f>'AP1 Instruments'!I300</f>
         <v>ELAB225-34972A</v>
@@ -18698,7 +18714,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="17" t="str">
         <f>'AP1 Instruments'!I187</f>
         <v>ELAB220-34972A</v>
@@ -18720,7 +18736,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="17" t="str">
         <f>'AP1 Instruments'!I111</f>
         <v>ELAB229-34972A</v>
@@ -18742,7 +18758,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="17" t="s">
         <v>696</v>
       </c>
@@ -18762,7 +18778,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="17" t="s">
         <v>479</v>
       </c>
@@ -18782,7 +18798,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="17" t="str">
         <f>'AP1 Instruments'!I277</f>
         <v>ELAB224-34972A</v>
@@ -18804,7 +18820,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="17" t="str">
         <f>'AP1 Instruments'!I63</f>
         <v>ELAB228-34972A</v>
@@ -18826,7 +18842,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="17" t="s">
         <v>481</v>
       </c>
@@ -18846,7 +18862,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="17"/>
       <c r="B241" s="27"/>
       <c r="C241" s="17"/>
@@ -18856,7 +18872,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="17"/>
       <c r="B242" s="27"/>
       <c r="C242" s="17"/>
@@ -18866,7 +18882,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="17" t="str">
         <f>'AP1 Instruments'!U3</f>
         <v>Station 1 Computer-Wireless</v>
@@ -18888,7 +18904,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="17" t="str">
         <f>'AP1 Instruments'!U4</f>
         <v>Station 2 Computer-Wireless</v>
@@ -18910,7 +18926,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="17" t="str">
         <f>'AP1 Instruments'!U5</f>
         <v>Station 3 Computer-Wireless</v>
@@ -18932,7 +18948,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="17" t="str">
         <f>'AP1 Instruments'!U6</f>
         <v>Station 4 Computer-Wireless</v>
@@ -18954,7 +18970,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="17" t="str">
         <f>'AP1 Instruments'!U7</f>
         <v>Station 5 Computer-Wireless</v>
@@ -18976,7 +18992,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="17" t="str">
         <f>'AP1 Instruments'!U8</f>
         <v>Station 6 Computer-Wireless</v>
@@ -18998,7 +19014,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="17" t="str">
         <f>'AP1 Instruments'!U9</f>
         <v>Station 7 Computer-Wireless</v>
@@ -19020,7 +19036,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="17" t="str">
         <f>'AP1 Instruments'!U10</f>
         <v>Station 8 Computer-Wireless</v>
@@ -19042,7 +19058,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="17" t="str">
         <f>'AP1 Instruments'!U11</f>
         <v>Station 9 Computer-Wireless</v>
@@ -19064,7 +19080,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="17" t="str">
         <f>'AP1 Instruments'!U12</f>
         <v>Station 10 Computer-Wireless</v>
@@ -19086,7 +19102,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="17" t="str">
         <f>'AP1 Instruments'!U13</f>
         <v>Station 11 Computer-Wireless</v>
@@ -19108,7 +19124,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="17" t="str">
         <f>'AP1 Instruments'!U14</f>
         <v>Station 12 Computer-Wireless</v>
@@ -19130,7 +19146,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="17" t="str">
         <f>'AP1 Instruments'!Y3</f>
         <v>Station 1 Computer-Wireless</v>
@@ -19152,7 +19168,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="17"/>
       <c r="B256" s="27"/>
       <c r="C256" s="17"/>
@@ -19162,7 +19178,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="17" t="str">
         <f>'AP1 Instruments'!Y5</f>
         <v>Station 2 Computer-Wireless</v>
@@ -19184,7 +19200,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A258" s="30" t="s">
         <v>400</v>
       </c>
@@ -19202,7 +19218,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A259" s="28"/>
       <c r="B259" s="29"/>
       <c r="C259" s="28"/>
@@ -19210,7 +19226,7 @@
       <c r="E259" s="28"/>
       <c r="F259" s="28"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="15" t="str">
         <f>'AP1 Instruments'!P6</f>
         <v>Big Room WILT-Top Computer</v>
@@ -19232,7 +19248,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="15" t="str">
         <f>'AP1 Instruments'!P4</f>
         <v>Big Room WILT-Bottom Computer</v>
@@ -19254,115 +19270,115 @@
         <v>170</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F262">
         <v>171</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F263">
         <v>172</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B264" s="21"/>
       <c r="F264" s="15">
         <v>173</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B265" s="21"/>
       <c r="F265" s="15">
         <v>174</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B266" s="21"/>
       <c r="F266" s="15">
         <v>175</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B267" s="21"/>
       <c r="F267" s="15">
         <v>176</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B268" s="21"/>
       <c r="F268" s="15">
         <v>177</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B269" s="21"/>
       <c r="F269" s="15">
         <v>178</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B270" s="21"/>
       <c r="F270" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F271">
         <v>180</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F272">
         <v>181</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F273">
         <v>182</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F274">
         <v>183</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B275" s="21"/>
       <c r="F275" s="15">
         <v>184</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B276" s="21"/>
       <c r="F276" s="15">
         <v>185</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B277" s="21"/>
       <c r="F277" s="15">
         <v>186</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B278" s="21"/>
       <c r="F278" s="15">
         <v>187</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B279" s="21"/>
       <c r="F279" s="15">
         <v>188</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B280" s="21"/>
       <c r="F280" s="15">
         <v>189</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="15" t="str">
         <f>'AP1 Instruments'!Q13</f>
         <v>ICP COMM 1-3</v>
@@ -19384,7 +19400,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="str">
         <f>'AP1 Instruments'!Q14</f>
         <v>ICP COMM 4-6</v>
@@ -19406,7 +19422,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="15" t="str">
         <f>'AP1 Instruments'!Q15</f>
         <v>ICP COMM 7-9</v>
@@ -19428,7 +19444,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="15" t="str">
         <f>'AP1 Instruments'!Q16</f>
         <v>ICP COMM 10-12</v>
@@ -19450,7 +19466,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="15" t="str">
         <f>'AP1 Instruments'!Q17</f>
         <v>ICP COMM 13-14</v>
@@ -19472,7 +19488,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="15" t="str">
         <f>'AP1 Instruments'!Q18</f>
         <v>ICP COMM 15-17</v>
@@ -19494,7 +19510,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="15" t="str">
         <f>'AP1 Instruments'!Q19</f>
         <v>ICP COMM 18-20</v>
@@ -19516,7 +19532,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="15" t="str">
         <f>'AP1 Instruments'!Q20</f>
         <v>ICP COMM 21-23</v>
@@ -19538,7 +19554,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="15" t="str">
         <f>'AP1 Instruments'!Q21</f>
         <v>ICP COMM 24-26</v>
@@ -19560,7 +19576,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="15" t="str">
         <f>'AP1 Instruments'!Q22</f>
         <v>ICP COMM 27-29</v>
@@ -19582,7 +19598,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="15" t="str">
         <f>'AP1 Instruments'!Q23</f>
         <v>ICP COMM 30-32</v>
@@ -19604,7 +19620,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="15" t="str">
         <f>'AP1 Instruments'!Q24</f>
         <v>ICP COMM 33-35</v>
@@ -19626,7 +19642,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="15" t="str">
         <f>'AP1 Instruments'!Q25</f>
         <v>ICP COMM 36-38</v>
@@ -19648,7 +19664,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="15" t="str">
         <f>'AP1 Instruments'!Q26</f>
         <v>ICP COMM 39-41</v>
@@ -19670,7 +19686,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="str">
         <f>'AP1 Instruments'!Q27</f>
         <v>ICP COMM 42-44</v>
@@ -19692,7 +19708,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="str">
         <f>'AP1 Instruments'!Q28</f>
         <v>ICP COMM 45-47</v>
@@ -19714,7 +19730,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="str">
         <f>'AP1 Instruments'!Q29</f>
         <v>ICP COMM 48-50</v>
@@ -19736,7 +19752,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="str">
         <f>'AP1 Instruments'!Q30</f>
         <v>ICP COMM 51-53</v>
@@ -19758,7 +19774,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="str">
         <f>'AP1 Instruments'!Q31</f>
         <v>ICP COMM 54-56</v>
@@ -19780,7 +19796,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="15" t="str">
         <f>'AP1 Instruments'!Q32</f>
         <v>ICP COMM 57-60</v>
@@ -19802,7 +19818,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="15" t="str">
         <f>'AP1 Instruments'!Q33</f>
         <v>ICP COMM 61-64</v>
@@ -19824,7 +19840,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="str">
         <f>'AP1 Instruments'!Q34</f>
         <v>ICP COMM 65-66</v>
@@ -19846,7 +19862,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="str">
         <f>'AP1 Instruments'!Q35</f>
         <v>ICP COMM 67-70</v>
@@ -19868,7 +19884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="15" t="str">
         <f>'AP1 Instruments'!Q36</f>
         <v>ICP COMM 71-74</v>
@@ -19890,7 +19906,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="str">
         <f>'AP1 Instruments'!Q37</f>
         <v>ICP COMM 75-78</v>
@@ -19912,7 +19928,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="str">
         <f>'AP1 Instruments'!Q38</f>
         <v>ICP COMM 79-82</v>
@@ -19934,7 +19950,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="15" t="str">
         <f>'AP1 Instruments'!Q39</f>
         <v>ICP COMM 83-86</v>
@@ -19956,7 +19972,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="str">
         <f>'AP1 Instruments'!Q40</f>
         <v>ICP COMM 87-88</v>
@@ -19978,7 +19994,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="str">
         <f>'AP1 Instruments'!Q41</f>
         <v>ICP COMM 89-90</v>
@@ -20000,7 +20016,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="15" t="str">
         <f>'AP1 Instruments'!Q42</f>
         <v>ICP COMM 91-94</v>
@@ -20022,7 +20038,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="str">
         <f>'AP1 Instruments'!Q43</f>
         <v>ICP COMM 95-97</v>
@@ -20044,217 +20060,217 @@
         <v>220</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B312" s="21"/>
       <c r="F312" s="15">
         <v>221</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B313" s="21"/>
       <c r="F313" s="15">
         <v>222</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B314" s="21"/>
       <c r="F314" s="15">
         <v>223</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B315" s="21"/>
       <c r="F315" s="15">
         <v>224</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B316" s="21"/>
       <c r="F316" s="15">
         <v>225</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B317" s="21"/>
       <c r="F317" s="15">
         <v>226</v>
       </c>
     </row>
-    <row r="318" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B318" s="21"/>
       <c r="F318" s="15">
         <v>227</v>
       </c>
     </row>
-    <row r="319" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B319" s="21"/>
       <c r="F319" s="15">
         <v>228</v>
       </c>
     </row>
-    <row r="320" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B320" s="21"/>
       <c r="F320" s="15">
         <v>229</v>
       </c>
     </row>
-    <row r="321" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B321" s="21"/>
       <c r="F321" s="15">
         <v>230</v>
       </c>
     </row>
-    <row r="322" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B322" s="21"/>
       <c r="F322" s="15">
         <v>231</v>
       </c>
     </row>
-    <row r="323" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B323" s="21"/>
       <c r="F323" s="15">
         <v>232</v>
       </c>
     </row>
-    <row r="324" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B324" s="21"/>
       <c r="F324" s="15">
         <v>233</v>
       </c>
     </row>
-    <row r="325" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B325" s="21"/>
       <c r="F325" s="15">
         <v>234</v>
       </c>
     </row>
-    <row r="326" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B326" s="21"/>
       <c r="F326" s="15">
         <v>235</v>
       </c>
     </row>
-    <row r="327" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B327" s="21"/>
       <c r="F327" s="15">
         <v>236</v>
       </c>
     </row>
-    <row r="328" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B328" s="21"/>
       <c r="F328" s="15">
         <v>237</v>
       </c>
     </row>
-    <row r="329" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B329" s="21"/>
       <c r="F329" s="15">
         <v>238</v>
       </c>
     </row>
-    <row r="330" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B330" s="21"/>
       <c r="F330" s="15">
         <v>239</v>
       </c>
     </row>
-    <row r="331" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B331" s="21"/>
       <c r="F331" s="15">
         <v>240</v>
       </c>
     </row>
-    <row r="332" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B332" s="21"/>
       <c r="F332" s="15">
         <v>241</v>
       </c>
     </row>
-    <row r="333" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B333" s="21"/>
       <c r="F333" s="15">
         <v>242</v>
       </c>
     </row>
-    <row r="334" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B334" s="21"/>
       <c r="F334" s="15">
         <v>243</v>
       </c>
     </row>
-    <row r="335" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B335" s="21"/>
       <c r="F335" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="336" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B336" s="21"/>
       <c r="F336" s="15">
         <v>245</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B337" s="21"/>
       <c r="F337" s="15">
         <v>246</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B338" s="21"/>
       <c r="F338" s="15">
         <v>247</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B339" s="21"/>
       <c r="F339" s="15">
         <v>248</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B340" s="21"/>
       <c r="F340" s="15">
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B341" s="21"/>
       <c r="F341" s="15">
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B342" s="21"/>
       <c r="F342" s="15">
         <v>251</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B343" s="21"/>
       <c r="F343" s="15">
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B344" s="21"/>
       <c r="F344" s="15">
         <v>253</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B345" s="21"/>
       <c r="F345" s="15">
         <v>254</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B346" s="21"/>
       <c r="F346" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="str">
         <f>'AP1 Instruments'!I110</f>
         <v>ELAB229-Computer</v>
@@ -20276,7 +20292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="str">
         <f>'AP1 Instruments'!I208</f>
         <v>ELAB224-Computer</v>
@@ -20298,7 +20314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="str">
         <f>'AP1 Instruments'!A2</f>
         <v>1st Floor Server</v>

--- a/NI-2010/Trunk/Washer DOE/Documentation/Building 1 Lab IP Assignment.xlsx
+++ b/NI-2010/Trunk/Washer DOE/Documentation/Building 1 Lab IP Assignment.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="883">
   <si>
     <t>Station</t>
   </si>
@@ -2641,6 +2641,102 @@
   </si>
   <si>
     <t>192.168.1.35</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
+    <t>192.168.3.2</t>
+  </si>
+  <si>
+    <t>192.168.3.3</t>
+  </si>
+  <si>
+    <t>192.168.3.4</t>
+  </si>
+  <si>
+    <t>192.168.3.5</t>
+  </si>
+  <si>
+    <t>192.168.3.6</t>
+  </si>
+  <si>
+    <t>192.168.3.7</t>
+  </si>
+  <si>
+    <t>192.168.3.8</t>
+  </si>
+  <si>
+    <t>192.168.3.9</t>
+  </si>
+  <si>
+    <t>192.168.3.10</t>
+  </si>
+  <si>
+    <t>192.168.3.11</t>
+  </si>
+  <si>
+    <t>192.168.3.12</t>
+  </si>
+  <si>
+    <t>192.168.3.13</t>
+  </si>
+  <si>
+    <t>192.168.3.14</t>
+  </si>
+  <si>
+    <t>192.168.3.15</t>
+  </si>
+  <si>
+    <t>192.168.3.16</t>
+  </si>
+  <si>
+    <t>192.168.3.17</t>
+  </si>
+  <si>
+    <t>192.168.3.18</t>
+  </si>
+  <si>
+    <t>192.168.3.19</t>
+  </si>
+  <si>
+    <t>192.168.3.20</t>
+  </si>
+  <si>
+    <t>192.168.3.21</t>
+  </si>
+  <si>
+    <t>192.168.3.22</t>
+  </si>
+  <si>
+    <t>192.168.3.23</t>
+  </si>
+  <si>
+    <t>Wash Performance APLUS Station 1</t>
+  </si>
+  <si>
+    <t>Wash Perf Laurel Hot Temp St 1</t>
+  </si>
+  <si>
+    <t>Wash Perf Laurel Cold Temp St 1</t>
+  </si>
+  <si>
+    <t>Wash Perf Laurel Hot Pressure St 1</t>
+  </si>
+  <si>
+    <t>Wash Perf Laurel Cold Pressure St 1</t>
+  </si>
+  <si>
+    <t>Wash Perf Laurel Hot Flow St 1</t>
+  </si>
+  <si>
+    <t>Wash Perf Laurel Cold Flow St 1</t>
+  </si>
+  <si>
+    <t>Wash Performance PC???</t>
+  </si>
+  <si>
+    <t>Wash Performance 34972 Station 1</t>
   </si>
 </sst>
 </file>
@@ -15354,10 +15450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H349"/>
+  <dimension ref="A1:H377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20321,6 +20417,427 @@
       </c>
       <c r="B349" s="21"/>
     </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>881</v>
+      </c>
+      <c r="B354" t="s">
+        <v>851</v>
+      </c>
+      <c r="C354">
+        <v>192</v>
+      </c>
+      <c r="D354">
+        <v>168</v>
+      </c>
+      <c r="E354">
+        <v>3</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>875</v>
+      </c>
+      <c r="B355" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="C355" s="15">
+        <v>192</v>
+      </c>
+      <c r="D355" s="15">
+        <v>168</v>
+      </c>
+      <c r="E355" s="15">
+        <v>3</v>
+      </c>
+      <c r="F355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>876</v>
+      </c>
+      <c r="B356" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C356" s="15">
+        <v>192</v>
+      </c>
+      <c r="D356" s="15">
+        <v>168</v>
+      </c>
+      <c r="E356" s="15">
+        <v>3</v>
+      </c>
+      <c r="F356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>877</v>
+      </c>
+      <c r="B357" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="C357" s="15">
+        <v>192</v>
+      </c>
+      <c r="D357" s="15">
+        <v>168</v>
+      </c>
+      <c r="E357" s="15">
+        <v>3</v>
+      </c>
+      <c r="F357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>878</v>
+      </c>
+      <c r="B358" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="C358" s="15">
+        <v>192</v>
+      </c>
+      <c r="D358" s="15">
+        <v>168</v>
+      </c>
+      <c r="E358" s="15">
+        <v>3</v>
+      </c>
+      <c r="F358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>879</v>
+      </c>
+      <c r="B359" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="C359" s="15">
+        <v>192</v>
+      </c>
+      <c r="D359" s="15">
+        <v>168</v>
+      </c>
+      <c r="E359" s="15">
+        <v>3</v>
+      </c>
+      <c r="F359">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>880</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="C360" s="15">
+        <v>192</v>
+      </c>
+      <c r="D360" s="15">
+        <v>168</v>
+      </c>
+      <c r="E360" s="15">
+        <v>3</v>
+      </c>
+      <c r="F360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>874</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="C361" s="15">
+        <v>192</v>
+      </c>
+      <c r="D361" s="15">
+        <v>168</v>
+      </c>
+      <c r="E361" s="15">
+        <v>3</v>
+      </c>
+      <c r="F361">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>882</v>
+      </c>
+      <c r="B362" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="C362" s="15">
+        <v>192</v>
+      </c>
+      <c r="D362" s="15">
+        <v>168</v>
+      </c>
+      <c r="E362" s="15">
+        <v>3</v>
+      </c>
+      <c r="F362">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B363" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="C363" s="15">
+        <v>192</v>
+      </c>
+      <c r="D363" s="15">
+        <v>168</v>
+      </c>
+      <c r="E363" s="15">
+        <v>3</v>
+      </c>
+      <c r="F363">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B364" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="C364" s="15">
+        <v>192</v>
+      </c>
+      <c r="D364" s="15">
+        <v>168</v>
+      </c>
+      <c r="E364" s="15">
+        <v>3</v>
+      </c>
+      <c r="F364">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B365" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="C365" s="15">
+        <v>192</v>
+      </c>
+      <c r="D365" s="15">
+        <v>168</v>
+      </c>
+      <c r="E365" s="15">
+        <v>3</v>
+      </c>
+      <c r="F365">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B366" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="C366" s="15">
+        <v>192</v>
+      </c>
+      <c r="D366" s="15">
+        <v>168</v>
+      </c>
+      <c r="E366" s="15">
+        <v>3</v>
+      </c>
+      <c r="F366">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B367" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="C367" s="15">
+        <v>192</v>
+      </c>
+      <c r="D367" s="15">
+        <v>168</v>
+      </c>
+      <c r="E367" s="15">
+        <v>3</v>
+      </c>
+      <c r="F367">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B368" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="C368" s="15">
+        <v>192</v>
+      </c>
+      <c r="D368" s="15">
+        <v>168</v>
+      </c>
+      <c r="E368" s="15">
+        <v>3</v>
+      </c>
+      <c r="F368">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B369" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C369" s="15">
+        <v>192</v>
+      </c>
+      <c r="D369" s="15">
+        <v>168</v>
+      </c>
+      <c r="E369" s="15">
+        <v>3</v>
+      </c>
+      <c r="F369">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B370" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="C370" s="15">
+        <v>192</v>
+      </c>
+      <c r="D370" s="15">
+        <v>168</v>
+      </c>
+      <c r="E370" s="15">
+        <v>3</v>
+      </c>
+      <c r="F370">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B371" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C371" s="15">
+        <v>192</v>
+      </c>
+      <c r="D371" s="15">
+        <v>168</v>
+      </c>
+      <c r="E371" s="15">
+        <v>3</v>
+      </c>
+      <c r="F371">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B372" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="C372" s="15">
+        <v>192</v>
+      </c>
+      <c r="D372" s="15">
+        <v>168</v>
+      </c>
+      <c r="E372" s="15">
+        <v>3</v>
+      </c>
+      <c r="F372">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B373" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="C373" s="15">
+        <v>192</v>
+      </c>
+      <c r="D373" s="15">
+        <v>168</v>
+      </c>
+      <c r="E373" s="15">
+        <v>3</v>
+      </c>
+      <c r="F373">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B374" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="C374" s="15">
+        <v>192</v>
+      </c>
+      <c r="D374" s="15">
+        <v>168</v>
+      </c>
+      <c r="E374" s="15">
+        <v>3</v>
+      </c>
+      <c r="F374">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B375" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="C375" s="15">
+        <v>192</v>
+      </c>
+      <c r="D375" s="15">
+        <v>168</v>
+      </c>
+      <c r="E375" s="15">
+        <v>3</v>
+      </c>
+      <c r="F375">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B376" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="C376" s="15">
+        <v>192</v>
+      </c>
+      <c r="D376" s="15">
+        <v>168</v>
+      </c>
+      <c r="E376" s="15">
+        <v>3</v>
+      </c>
+      <c r="F376">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E377" s="15"/>
+    </row>
   </sheetData>
   <sortState ref="A2:F102">
     <sortCondition ref="C2:C102"/>
